--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -650,8 +650,8 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="1" sqref="D5 E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t xml:space="preserve">usuario_id</t>
   </si>
@@ -426,7 +426,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -528,6 +528,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -650,14 +654,14 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="1" sqref="D5 E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="46.14"/>
@@ -1211,16 +1215,14 @@
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="28" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="15"/>
@@ -1230,8 +1232,8 @@
       <c r="J15" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="28" t="n">
-        <v>30</v>
+      <c r="K15" s="29" t="n">
+        <v>1</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
@@ -1253,16 +1255,14 @@
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="25" t="n">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="29" t="n">
+      <c r="F16" s="30" t="n">
         <v>44620.4485532407</v>
       </c>
       <c r="H16" s="15"/>
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="23" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
@@ -1295,16 +1295,14 @@
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="25" t="n">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="29" t="n">
+      <c r="F17" s="30" t="n">
         <v>43953.2295717593</v>
       </c>
       <c r="H17" s="15"/>
@@ -1315,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="23" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
@@ -1337,16 +1335,14 @@
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="25" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="25" t="n">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="29" t="n">
+      <c r="F18" s="30" t="n">
         <v>43896.4739930556</v>
       </c>
       <c r="H18" s="15"/>
@@ -1356,8 +1352,8 @@
       <c r="J18" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="K18" s="28" t="n">
-        <v>30</v>
+      <c r="K18" s="29" t="n">
+        <v>1</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
@@ -1379,16 +1375,14 @@
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="25" t="n">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="32" t="s">
         <v>47</v>
       </c>
       <c r="G19" s="18"/>
@@ -1400,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="23" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
@@ -1422,16 +1416,14 @@
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" s="25" t="n">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="32" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="18"/>
@@ -1443,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="K20" s="23" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
@@ -1463,30 +1455,28 @@
       <c r="AA20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" s="25" t="n">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36" t="n">
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37" t="n">
         <v>7</v>
       </c>
       <c r="J21" s="25" t="n">
         <v>4</v>
       </c>
       <c r="K21" s="23" t="n">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -1506,30 +1496,28 @@
       <c r="AA21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="25" t="n">
-        <v>7</v>
-      </c>
+      <c r="C22" s="26"/>
       <c r="D22" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36" t="n">
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37" t="n">
         <v>8</v>
       </c>
       <c r="J22" s="25" t="n">
         <v>5</v>
       </c>
       <c r="K22" s="23" t="n">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
@@ -1549,30 +1537,28 @@
       <c r="AA22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="25" t="n">
-        <v>8</v>
-      </c>
+      <c r="C23" s="26"/>
       <c r="D23" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36" t="n">
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37" t="n">
         <v>9</v>
       </c>
       <c r="J23" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="K23" s="36" t="n">
-        <v>56</v>
+      <c r="K23" s="37" t="n">
+        <v>6</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
@@ -1592,30 +1578,28 @@
       <c r="AA23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="32"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="25" t="n">
-        <v>9</v>
-      </c>
+      <c r="C24" s="26"/>
       <c r="D24" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36" t="n">
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37" t="n">
         <v>10</v>
       </c>
       <c r="J24" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="K24" s="36" t="n">
-        <v>56</v>
+      <c r="K24" s="37" t="n">
+        <v>6</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
@@ -1635,22 +1619,20 @@
       <c r="AA24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="32"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="25" t="n">
-        <v>10</v>
-      </c>
+      <c r="C25" s="26"/>
       <c r="D25" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
       <c r="K25" s="18"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
@@ -1670,26 +1652,24 @@
       <c r="AA25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="32"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="25" t="n">
-        <v>11</v>
-      </c>
+      <c r="C26" s="26"/>
       <c r="D26" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="38" t="s">
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="38"/>
+      <c r="J26" s="39"/>
       <c r="K26" s="18"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
@@ -1709,22 +1689,20 @@
       <c r="AA26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="32"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="25" t="n">
-        <v>12</v>
-      </c>
+      <c r="C27" s="26"/>
       <c r="D27" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="23" t="s">
         <v>11</v>
       </c>
@@ -1750,24 +1728,22 @@
       <c r="AA27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="32"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="25" t="n">
-        <v>13</v>
-      </c>
+      <c r="C28" s="26"/>
       <c r="D28" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="23" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J28" s="23" t="s">
         <v>63</v>
@@ -1791,24 +1767,22 @@
       <c r="AA28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="32"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="25" t="n">
-        <v>14</v>
-      </c>
+      <c r="C29" s="26"/>
       <c r="D29" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="23" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="J29" s="23" t="s">
         <v>65</v>
@@ -1832,24 +1806,22 @@
       <c r="AA29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="32"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="25" t="n">
-        <v>15</v>
-      </c>
+      <c r="C30" s="26"/>
       <c r="D30" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="23" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="J30" s="23" t="s">
         <v>68</v>
@@ -1873,24 +1845,22 @@
       <c r="AA30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="32"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="25" t="n">
-        <v>16</v>
-      </c>
+      <c r="C31" s="26"/>
       <c r="D31" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="23" t="n">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="J31" s="23" t="s">
         <v>71</v>
@@ -1914,15 +1884,15 @@
       <c r="AA31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="32"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="23" t="n">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="J32" s="23" t="s">
         <v>72</v>
@@ -1946,15 +1916,15 @@
       <c r="AA32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="32"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36" t="n">
-        <v>56</v>
+      <c r="E33" s="35"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="23" t="n">
+        <v>6</v>
       </c>
       <c r="J33" s="23" t="s">
         <v>73</v>
@@ -1978,14 +1948,14 @@
       <c r="AA33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="32"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="32"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="14"/>
       <c r="K34" s="18"/>
       <c r="L34" s="14"/>
@@ -2006,14 +1976,14 @@
       <c r="AA34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="32"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="32"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="14"/>
       <c r="K35" s="18"/>
       <c r="L35" s="14"/>
@@ -2034,14 +2004,14 @@
       <c r="AA35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="32"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="32"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="14"/>
       <c r="K36" s="18"/>
       <c r="L36" s="14"/>
@@ -2062,17 +2032,17 @@
       <c r="AA36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="32"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="14"/>
       <c r="K37" s="18"/>
       <c r="L37" s="14"/>
@@ -2093,25 +2063,25 @@
       <c r="AA37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="42" t="s">
         <v>77</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="42"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="45"/>
+      <c r="K38" s="46"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -2133,11 +2103,11 @@
       <c r="A39" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="47" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="23" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>79</v>
@@ -2145,8 +2115,8 @@
       <c r="E39" s="9"/>
       <c r="F39" s="18"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="47"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="48"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
@@ -2170,11 +2140,11 @@
       <c r="A40" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="47" t="s">
         <v>80</v>
       </c>
       <c r="C40" s="23" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>81</v>
@@ -2182,8 +2152,8 @@
       <c r="E40" s="8"/>
       <c r="F40" s="18"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="47"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="48"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
@@ -2207,11 +2177,11 @@
       <c r="A41" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="47" t="s">
         <v>82</v>
       </c>
       <c r="C41" s="23" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>83</v>
@@ -2219,8 +2189,8 @@
       <c r="E41" s="8"/>
       <c r="F41" s="18"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="47"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="48"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
@@ -2244,11 +2214,11 @@
       <c r="A42" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="47" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="23" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>85</v>
@@ -2256,8 +2226,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="18"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="47"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="48"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
@@ -2281,11 +2251,11 @@
       <c r="A43" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="47" t="s">
         <v>86</v>
       </c>
       <c r="C43" s="23" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>87</v>
@@ -2293,8 +2263,8 @@
       <c r="E43" s="8"/>
       <c r="F43" s="18"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="47"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="48"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
@@ -2318,20 +2288,20 @@
       <c r="A44" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C44" s="23" t="n">
-        <v>77</v>
-      </c>
-      <c r="D44" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="47" t="s">
         <v>89</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
       <c r="G44" s="14"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="47"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="48"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
@@ -2355,20 +2325,20 @@
       <c r="A45" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="47" t="s">
         <v>90</v>
       </c>
       <c r="C45" s="23" t="n">
-        <v>94</v>
-      </c>
-      <c r="D45" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="47" t="s">
         <v>91</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="47"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="48"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
@@ -2392,20 +2362,20 @@
       <c r="A46" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="47" t="s">
         <v>92</v>
       </c>
       <c r="C46" s="23" t="n">
-        <v>56</v>
-      </c>
-      <c r="D46" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="47" t="s">
         <v>93</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="9"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="47"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="48"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
@@ -2426,15 +2396,15 @@
       <c r="AA46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="32"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="32"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="48"/>
+      <c r="F47" s="49"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="32"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="33"/>
       <c r="J47" s="6"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
@@ -2455,17 +2425,17 @@
       <c r="AA47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="32"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="32"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="33"/>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
@@ -2486,9 +2456,9 @@
       <c r="AA48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="32"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="25" t="s">
@@ -2497,12 +2467,12 @@
       <c r="E49" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F49" s="49" t="s">
+      <c r="F49" s="50" t="s">
         <v>96</v>
       </c>
       <c r="G49" s="14"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="32"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="33"/>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
@@ -2523,23 +2493,23 @@
       <c r="AA49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="32"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="36" t="n">
+      <c r="C50" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="D50" s="25" t="n">
+      <c r="D50" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" s="51" t="s">
         <v>97</v>
       </c>
       <c r="G50" s="14"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="32"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="33"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
@@ -2560,23 +2530,23 @@
       <c r="AA50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="32"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="36" t="n">
+      <c r="C51" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="D51" s="25" t="n">
+      <c r="D51" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F51" s="50" t="s">
+      <c r="F51" s="51" t="s">
         <v>98</v>
       </c>
       <c r="G51" s="14"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="32"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="33"/>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
@@ -2597,23 +2567,23 @@
       <c r="AA51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="32"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="36" t="n">
+      <c r="C52" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="D52" s="25" t="n">
+      <c r="D52" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F52" s="50" t="s">
+      <c r="F52" s="51" t="s">
         <v>99</v>
       </c>
       <c r="G52" s="14"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="32"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="33"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
@@ -2634,23 +2604,23 @@
       <c r="AA52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="32"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="36" t="n">
+      <c r="C53" s="37" t="n">
         <v>4</v>
       </c>
-      <c r="D53" s="25" t="n">
+      <c r="D53" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F53" s="23" t="n">
         <v>203</v>
       </c>
       <c r="G53" s="14"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="32"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="33"/>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
@@ -2671,23 +2641,23 @@
       <c r="AA53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="32"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="36" t="n">
+      <c r="C54" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="D54" s="25" t="n">
+      <c r="D54" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="E54" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F54" s="23" t="n">
         <v>152</v>
       </c>
       <c r="G54" s="14"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="32"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="33"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
@@ -2708,23 +2678,23 @@
       <c r="AA54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="32"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="14"/>
-      <c r="C55" s="36" t="n">
+      <c r="C55" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="D55" s="25" t="n">
+      <c r="D55" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="29" t="s">
         <v>100</v>
       </c>
       <c r="F55" s="23" t="n">
         <v>105</v>
       </c>
       <c r="G55" s="14"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="32"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="33"/>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
@@ -2745,23 +2715,23 @@
       <c r="AA55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="32"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="36" t="n">
+      <c r="C56" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="D56" s="25" t="n">
+      <c r="D56" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="50" t="s">
+      <c r="F56" s="51" t="s">
         <v>101</v>
       </c>
       <c r="G56" s="14"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="32"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="33"/>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
@@ -2782,23 +2752,23 @@
       <c r="AA56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="32"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="36" t="n">
+      <c r="C57" s="37" t="n">
         <v>8</v>
       </c>
       <c r="D57" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F57" s="23" t="n">
         <v>267</v>
       </c>
       <c r="G57" s="14"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="32"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="33"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
@@ -2819,23 +2789,23 @@
       <c r="AA57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="32"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="36" t="n">
+      <c r="C58" s="37" t="n">
         <v>9</v>
       </c>
       <c r="D58" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E58" s="29" t="s">
         <v>66</v>
       </c>
       <c r="F58" s="23" t="n">
         <v>244</v>
       </c>
       <c r="G58" s="14"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="32"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="33"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
@@ -2856,23 +2826,23 @@
       <c r="AA58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="32"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="36" t="n">
+      <c r="C59" s="37" t="n">
         <v>10</v>
       </c>
       <c r="D59" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="29" t="s">
         <v>46</v>
       </c>
       <c r="F59" s="23" t="n">
         <v>100</v>
       </c>
       <c r="G59" s="14"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="32"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="33"/>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
@@ -2893,15 +2863,15 @@
       <c r="AA59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="32"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="32"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
-      <c r="F60" s="48"/>
+      <c r="F60" s="49"/>
       <c r="G60" s="14"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="32"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="33"/>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
@@ -2922,15 +2892,15 @@
       <c r="AA60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="32"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="14"/>
-      <c r="C61" s="32"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
-      <c r="F61" s="48"/>
+      <c r="F61" s="49"/>
       <c r="G61" s="14"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="32"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="33"/>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
@@ -2951,15 +2921,15 @@
       <c r="AA61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="32"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="32"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
-      <c r="F62" s="48"/>
+      <c r="F62" s="49"/>
       <c r="G62" s="14"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="32"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="33"/>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
       <c r="L62" s="14"/>
@@ -2980,15 +2950,15 @@
       <c r="AA62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="32"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="14"/>
-      <c r="C63" s="32"/>
+      <c r="C63" s="33"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
-      <c r="F63" s="48"/>
+      <c r="F63" s="49"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="32"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="33"/>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
       <c r="L63" s="14"/>
@@ -3009,15 +2979,15 @@
       <c r="AA63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="32"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="32"/>
+      <c r="C64" s="33"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
-      <c r="F64" s="48"/>
+      <c r="F64" s="49"/>
       <c r="G64" s="14"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="32"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="33"/>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
       <c r="L64" s="14"/>
@@ -3038,15 +3008,15 @@
       <c r="AA64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="32"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="14"/>
-      <c r="C65" s="32"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
-      <c r="F65" s="48"/>
+      <c r="F65" s="49"/>
       <c r="G65" s="14"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="32"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="33"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
@@ -3067,15 +3037,15 @@
       <c r="AA65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="32"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="32"/>
+      <c r="C66" s="33"/>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
-      <c r="F66" s="48"/>
+      <c r="F66" s="49"/>
       <c r="G66" s="14"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="32"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="33"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
       <c r="L66" s="14"/>
@@ -3096,15 +3066,15 @@
       <c r="AA66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="32"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="32"/>
+      <c r="C67" s="33"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
-      <c r="F67" s="48"/>
+      <c r="F67" s="49"/>
       <c r="G67" s="14"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="32"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="33"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
@@ -3125,15 +3095,15 @@
       <c r="AA67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="32"/>
+      <c r="A68" s="33"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="32"/>
+      <c r="C68" s="33"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
-      <c r="F68" s="48"/>
+      <c r="F68" s="49"/>
       <c r="G68" s="14"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="32"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="33"/>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
@@ -3154,15 +3124,15 @@
       <c r="AA68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="32"/>
+      <c r="A69" s="33"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="32"/>
+      <c r="C69" s="33"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
-      <c r="F69" s="48"/>
+      <c r="F69" s="49"/>
       <c r="G69" s="14"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="32"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="33"/>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
@@ -3183,15 +3153,15 @@
       <c r="AA69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="32"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="32"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
-      <c r="F70" s="48"/>
+      <c r="F70" s="49"/>
       <c r="G70" s="14"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="32"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="33"/>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
@@ -3212,15 +3182,15 @@
       <c r="AA70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="32"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="32"/>
+      <c r="C71" s="33"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
-      <c r="F71" s="48"/>
+      <c r="F71" s="49"/>
       <c r="G71" s="14"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="32"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="33"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
@@ -3241,15 +3211,15 @@
       <c r="AA71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="32"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="32"/>
+      <c r="C72" s="33"/>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
-      <c r="F72" s="48"/>
+      <c r="F72" s="49"/>
       <c r="G72" s="14"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="32"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="33"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
@@ -3270,15 +3240,15 @@
       <c r="AA72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="32"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="32"/>
+      <c r="C73" s="33"/>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
-      <c r="F73" s="48"/>
+      <c r="F73" s="49"/>
       <c r="G73" s="14"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="32"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="33"/>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
@@ -3299,15 +3269,15 @@
       <c r="AA73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="32"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="32"/>
+      <c r="C74" s="33"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
-      <c r="F74" s="48"/>
+      <c r="F74" s="49"/>
       <c r="G74" s="14"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="32"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="33"/>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
       <c r="L74" s="14"/>
@@ -3328,15 +3298,15 @@
       <c r="AA74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="32"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="32"/>
+      <c r="C75" s="33"/>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
-      <c r="F75" s="48"/>
+      <c r="F75" s="49"/>
       <c r="G75" s="14"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="32"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="33"/>
       <c r="J75" s="14"/>
       <c r="K75" s="14"/>
       <c r="L75" s="14"/>
@@ -3357,15 +3327,15 @@
       <c r="AA75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="32"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="32"/>
+      <c r="C76" s="33"/>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
-      <c r="F76" s="48"/>
+      <c r="F76" s="49"/>
       <c r="G76" s="14"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="32"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="33"/>
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
       <c r="L76" s="14"/>
@@ -3386,15 +3356,15 @@
       <c r="AA76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="32"/>
+      <c r="A77" s="33"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="32"/>
+      <c r="C77" s="33"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
-      <c r="F77" s="48"/>
+      <c r="F77" s="49"/>
       <c r="G77" s="14"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="32"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="33"/>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
       <c r="L77" s="14"/>
@@ -3415,15 +3385,15 @@
       <c r="AA77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="32"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="32"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
-      <c r="F78" s="48"/>
+      <c r="F78" s="49"/>
       <c r="G78" s="14"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="32"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="33"/>
       <c r="J78" s="14"/>
       <c r="K78" s="14"/>
       <c r="L78" s="14"/>
@@ -3444,15 +3414,15 @@
       <c r="AA78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="32"/>
+      <c r="A79" s="33"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="32"/>
+      <c r="C79" s="33"/>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
-      <c r="F79" s="48"/>
+      <c r="F79" s="49"/>
       <c r="G79" s="14"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="32"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="33"/>
       <c r="J79" s="14"/>
       <c r="K79" s="14"/>
       <c r="L79" s="14"/>
@@ -3473,15 +3443,15 @@
       <c r="AA79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="32"/>
+      <c r="A80" s="33"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="32"/>
+      <c r="C80" s="33"/>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
-      <c r="F80" s="48"/>
+      <c r="F80" s="49"/>
       <c r="G80" s="14"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="32"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="33"/>
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
@@ -3502,15 +3472,15 @@
       <c r="AA80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="32"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="32"/>
+      <c r="C81" s="33"/>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
-      <c r="F81" s="48"/>
+      <c r="F81" s="49"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="32"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="33"/>
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
       <c r="L81" s="14"/>
@@ -3531,15 +3501,15 @@
       <c r="AA81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="32"/>
+      <c r="A82" s="33"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="32"/>
+      <c r="C82" s="33"/>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
-      <c r="F82" s="48"/>
+      <c r="F82" s="49"/>
       <c r="G82" s="14"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="32"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="33"/>
       <c r="J82" s="14"/>
       <c r="K82" s="14"/>
       <c r="L82" s="14"/>
@@ -3560,15 +3530,15 @@
       <c r="AA82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="32"/>
+      <c r="A83" s="33"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="32"/>
+      <c r="C83" s="33"/>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
-      <c r="F83" s="48"/>
+      <c r="F83" s="49"/>
       <c r="G83" s="14"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="32"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="33"/>
       <c r="J83" s="14"/>
       <c r="K83" s="14"/>
       <c r="L83" s="14"/>
@@ -3589,15 +3559,15 @@
       <c r="AA83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="32"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="32"/>
+      <c r="C84" s="33"/>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
-      <c r="F84" s="48"/>
+      <c r="F84" s="49"/>
       <c r="G84" s="14"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="32"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="33"/>
       <c r="J84" s="14"/>
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
@@ -3618,15 +3588,15 @@
       <c r="AA84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="32"/>
+      <c r="A85" s="33"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="32"/>
+      <c r="C85" s="33"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
-      <c r="F85" s="48"/>
+      <c r="F85" s="49"/>
       <c r="G85" s="14"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="32"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="33"/>
       <c r="J85" s="14"/>
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
@@ -3647,15 +3617,15 @@
       <c r="AA85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="32"/>
+      <c r="A86" s="33"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="32"/>
+      <c r="C86" s="33"/>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
-      <c r="F86" s="48"/>
+      <c r="F86" s="49"/>
       <c r="G86" s="14"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="32"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="33"/>
       <c r="J86" s="14"/>
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
@@ -3676,15 +3646,15 @@
       <c r="AA86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="32"/>
+      <c r="A87" s="33"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="32"/>
+      <c r="C87" s="33"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
-      <c r="F87" s="48"/>
+      <c r="F87" s="49"/>
       <c r="G87" s="14"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="32"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="33"/>
       <c r="J87" s="14"/>
       <c r="K87" s="14"/>
       <c r="L87" s="14"/>
@@ -3705,15 +3675,15 @@
       <c r="AA87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="32"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="32"/>
+      <c r="C88" s="33"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
-      <c r="F88" s="48"/>
+      <c r="F88" s="49"/>
       <c r="G88" s="14"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="32"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="33"/>
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
       <c r="L88" s="14"/>
@@ -3734,15 +3704,15 @@
       <c r="AA88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="32"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="32"/>
+      <c r="C89" s="33"/>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
-      <c r="F89" s="48"/>
+      <c r="F89" s="49"/>
       <c r="G89" s="14"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="32"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="33"/>
       <c r="J89" s="14"/>
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
@@ -3763,15 +3733,15 @@
       <c r="AA89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="32"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="32"/>
+      <c r="C90" s="33"/>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
-      <c r="F90" s="48"/>
+      <c r="F90" s="49"/>
       <c r="G90" s="14"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="32"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="33"/>
       <c r="J90" s="14"/>
       <c r="K90" s="14"/>
       <c r="L90" s="14"/>
@@ -3792,15 +3762,15 @@
       <c r="AA90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="32"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="32"/>
+      <c r="C91" s="33"/>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
-      <c r="F91" s="48"/>
+      <c r="F91" s="49"/>
       <c r="G91" s="14"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="32"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="33"/>
       <c r="J91" s="14"/>
       <c r="K91" s="14"/>
       <c r="L91" s="14"/>
@@ -3821,15 +3791,15 @@
       <c r="AA91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="32"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="32"/>
+      <c r="C92" s="33"/>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
-      <c r="F92" s="48"/>
+      <c r="F92" s="49"/>
       <c r="G92" s="14"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="32"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="33"/>
       <c r="J92" s="14"/>
       <c r="K92" s="14"/>
       <c r="L92" s="14"/>
@@ -3850,15 +3820,15 @@
       <c r="AA92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="32"/>
+      <c r="A93" s="33"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="32"/>
+      <c r="C93" s="33"/>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
-      <c r="F93" s="48"/>
+      <c r="F93" s="49"/>
       <c r="G93" s="14"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="32"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="33"/>
       <c r="J93" s="14"/>
       <c r="K93" s="14"/>
       <c r="L93" s="14"/>
@@ -3879,15 +3849,15 @@
       <c r="AA93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="32"/>
+      <c r="A94" s="33"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="32"/>
+      <c r="C94" s="33"/>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
-      <c r="F94" s="48"/>
+      <c r="F94" s="49"/>
       <c r="G94" s="14"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="32"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="33"/>
       <c r="J94" s="14"/>
       <c r="K94" s="14"/>
       <c r="L94" s="14"/>
@@ -3908,15 +3878,15 @@
       <c r="AA94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="32"/>
+      <c r="A95" s="33"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="32"/>
+      <c r="C95" s="33"/>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
-      <c r="F95" s="48"/>
+      <c r="F95" s="49"/>
       <c r="G95" s="14"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="32"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="33"/>
       <c r="J95" s="14"/>
       <c r="K95" s="14"/>
       <c r="L95" s="14"/>
@@ -3937,15 +3907,15 @@
       <c r="AA95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="32"/>
+      <c r="A96" s="33"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="32"/>
+      <c r="C96" s="33"/>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
-      <c r="F96" s="48"/>
+      <c r="F96" s="49"/>
       <c r="G96" s="14"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="32"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="33"/>
       <c r="J96" s="14"/>
       <c r="K96" s="14"/>
       <c r="L96" s="14"/>
@@ -3966,15 +3936,15 @@
       <c r="AA96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="32"/>
+      <c r="A97" s="33"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="32"/>
+      <c r="C97" s="33"/>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
-      <c r="F97" s="48"/>
+      <c r="F97" s="49"/>
       <c r="G97" s="14"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="32"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="33"/>
       <c r="J97" s="14"/>
       <c r="K97" s="14"/>
       <c r="L97" s="14"/>
@@ -3995,15 +3965,15 @@
       <c r="AA97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="32"/>
+      <c r="A98" s="33"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="32"/>
+      <c r="C98" s="33"/>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
-      <c r="F98" s="48"/>
+      <c r="F98" s="49"/>
       <c r="G98" s="14"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="32"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="33"/>
       <c r="J98" s="14"/>
       <c r="K98" s="14"/>
       <c r="L98" s="14"/>
@@ -4024,15 +3994,15 @@
       <c r="AA98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="32"/>
+      <c r="A99" s="33"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="32"/>
+      <c r="C99" s="33"/>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
-      <c r="F99" s="48"/>
+      <c r="F99" s="49"/>
       <c r="G99" s="14"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="32"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="33"/>
       <c r="J99" s="14"/>
       <c r="K99" s="14"/>
       <c r="L99" s="14"/>
@@ -4053,15 +4023,15 @@
       <c r="AA99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="32"/>
+      <c r="A100" s="33"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="32"/>
+      <c r="C100" s="33"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
-      <c r="F100" s="48"/>
+      <c r="F100" s="49"/>
       <c r="G100" s="14"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="32"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="33"/>
       <c r="J100" s="14"/>
       <c r="K100" s="14"/>
       <c r="L100" s="14"/>
@@ -4082,15 +4052,15 @@
       <c r="AA100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="32"/>
+      <c r="A101" s="33"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="32"/>
+      <c r="C101" s="33"/>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
-      <c r="F101" s="48"/>
+      <c r="F101" s="49"/>
       <c r="G101" s="14"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="32"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="33"/>
       <c r="J101" s="14"/>
       <c r="K101" s="14"/>
       <c r="L101" s="14"/>
@@ -4111,15 +4081,15 @@
       <c r="AA101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="32"/>
+      <c r="A102" s="33"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="32"/>
+      <c r="C102" s="33"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
-      <c r="F102" s="48"/>
+      <c r="F102" s="49"/>
       <c r="G102" s="14"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="32"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="33"/>
       <c r="J102" s="14"/>
       <c r="K102" s="14"/>
       <c r="L102" s="14"/>
@@ -4140,15 +4110,15 @@
       <c r="AA102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="32"/>
+      <c r="A103" s="33"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="32"/>
+      <c r="C103" s="33"/>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
-      <c r="F103" s="48"/>
+      <c r="F103" s="49"/>
       <c r="G103" s="14"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="32"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="33"/>
       <c r="J103" s="14"/>
       <c r="K103" s="14"/>
       <c r="L103" s="14"/>
@@ -4169,15 +4139,15 @@
       <c r="AA103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="32"/>
+      <c r="A104" s="33"/>
       <c r="B104" s="14"/>
-      <c r="C104" s="32"/>
+      <c r="C104" s="33"/>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
-      <c r="F104" s="48"/>
+      <c r="F104" s="49"/>
       <c r="G104" s="14"/>
-      <c r="H104" s="35"/>
-      <c r="I104" s="32"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="33"/>
       <c r="J104" s="14"/>
       <c r="K104" s="14"/>
       <c r="L104" s="14"/>
@@ -4198,15 +4168,15 @@
       <c r="AA104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="32"/>
+      <c r="A105" s="33"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="32"/>
+      <c r="C105" s="33"/>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
-      <c r="F105" s="48"/>
+      <c r="F105" s="49"/>
       <c r="G105" s="14"/>
-      <c r="H105" s="35"/>
-      <c r="I105" s="32"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="33"/>
       <c r="J105" s="14"/>
       <c r="K105" s="14"/>
       <c r="L105" s="14"/>
@@ -4227,15 +4197,15 @@
       <c r="AA105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="32"/>
+      <c r="A106" s="33"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="32"/>
+      <c r="C106" s="33"/>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
-      <c r="F106" s="48"/>
+      <c r="F106" s="49"/>
       <c r="G106" s="14"/>
-      <c r="H106" s="35"/>
-      <c r="I106" s="32"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="33"/>
       <c r="J106" s="14"/>
       <c r="K106" s="14"/>
       <c r="L106" s="14"/>
@@ -4256,15 +4226,15 @@
       <c r="AA106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="32"/>
+      <c r="A107" s="33"/>
       <c r="B107" s="14"/>
-      <c r="C107" s="32"/>
+      <c r="C107" s="33"/>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
-      <c r="F107" s="48"/>
+      <c r="F107" s="49"/>
       <c r="G107" s="14"/>
-      <c r="H107" s="35"/>
-      <c r="I107" s="32"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="33"/>
       <c r="J107" s="14"/>
       <c r="K107" s="14"/>
       <c r="L107" s="14"/>
@@ -4285,15 +4255,15 @@
       <c r="AA107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="32"/>
+      <c r="A108" s="33"/>
       <c r="B108" s="14"/>
-      <c r="C108" s="32"/>
+      <c r="C108" s="33"/>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
-      <c r="F108" s="48"/>
+      <c r="F108" s="49"/>
       <c r="G108" s="14"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="32"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="33"/>
       <c r="J108" s="14"/>
       <c r="K108" s="14"/>
       <c r="L108" s="14"/>
@@ -4314,15 +4284,15 @@
       <c r="AA108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="32"/>
+      <c r="A109" s="33"/>
       <c r="B109" s="14"/>
-      <c r="C109" s="32"/>
+      <c r="C109" s="33"/>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
-      <c r="F109" s="48"/>
+      <c r="F109" s="49"/>
       <c r="G109" s="14"/>
-      <c r="H109" s="35"/>
-      <c r="I109" s="32"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="33"/>
       <c r="J109" s="14"/>
       <c r="K109" s="14"/>
       <c r="L109" s="14"/>
@@ -4343,15 +4313,15 @@
       <c r="AA109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="32"/>
+      <c r="A110" s="33"/>
       <c r="B110" s="14"/>
-      <c r="C110" s="32"/>
+      <c r="C110" s="33"/>
       <c r="D110" s="14"/>
       <c r="E110" s="14"/>
-      <c r="F110" s="48"/>
+      <c r="F110" s="49"/>
       <c r="G110" s="14"/>
-      <c r="H110" s="35"/>
-      <c r="I110" s="32"/>
+      <c r="H110" s="36"/>
+      <c r="I110" s="33"/>
       <c r="J110" s="14"/>
       <c r="K110" s="14"/>
       <c r="L110" s="14"/>
@@ -4372,15 +4342,15 @@
       <c r="AA110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="32"/>
+      <c r="A111" s="33"/>
       <c r="B111" s="14"/>
-      <c r="C111" s="32"/>
+      <c r="C111" s="33"/>
       <c r="D111" s="14"/>
       <c r="E111" s="14"/>
-      <c r="F111" s="48"/>
+      <c r="F111" s="49"/>
       <c r="G111" s="14"/>
-      <c r="H111" s="35"/>
-      <c r="I111" s="32"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="33"/>
       <c r="J111" s="14"/>
       <c r="K111" s="14"/>
       <c r="L111" s="14"/>
@@ -4401,15 +4371,15 @@
       <c r="AA111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="32"/>
+      <c r="A112" s="33"/>
       <c r="B112" s="14"/>
-      <c r="C112" s="32"/>
+      <c r="C112" s="33"/>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
-      <c r="F112" s="48"/>
+      <c r="F112" s="49"/>
       <c r="G112" s="14"/>
-      <c r="H112" s="35"/>
-      <c r="I112" s="32"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="33"/>
       <c r="J112" s="14"/>
       <c r="K112" s="14"/>
       <c r="L112" s="14"/>
@@ -4430,15 +4400,15 @@
       <c r="AA112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="32"/>
+      <c r="A113" s="33"/>
       <c r="B113" s="14"/>
-      <c r="C113" s="32"/>
+      <c r="C113" s="33"/>
       <c r="D113" s="14"/>
       <c r="E113" s="14"/>
-      <c r="F113" s="48"/>
+      <c r="F113" s="49"/>
       <c r="G113" s="14"/>
-      <c r="H113" s="35"/>
-      <c r="I113" s="32"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="33"/>
       <c r="J113" s="14"/>
       <c r="K113" s="14"/>
       <c r="L113" s="14"/>
@@ -4459,15 +4429,15 @@
       <c r="AA113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="32"/>
+      <c r="A114" s="33"/>
       <c r="B114" s="14"/>
-      <c r="C114" s="32"/>
+      <c r="C114" s="33"/>
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
-      <c r="F114" s="48"/>
+      <c r="F114" s="49"/>
       <c r="G114" s="14"/>
-      <c r="H114" s="35"/>
-      <c r="I114" s="32"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="33"/>
       <c r="J114" s="14"/>
       <c r="K114" s="14"/>
       <c r="L114" s="14"/>
@@ -4488,15 +4458,15 @@
       <c r="AA114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="32"/>
+      <c r="A115" s="33"/>
       <c r="B115" s="14"/>
-      <c r="C115" s="32"/>
+      <c r="C115" s="33"/>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
-      <c r="F115" s="48"/>
+      <c r="F115" s="49"/>
       <c r="G115" s="14"/>
-      <c r="H115" s="35"/>
-      <c r="I115" s="32"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="33"/>
       <c r="J115" s="14"/>
       <c r="K115" s="14"/>
       <c r="L115" s="14"/>
@@ -4517,15 +4487,15 @@
       <c r="AA115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="32"/>
+      <c r="A116" s="33"/>
       <c r="B116" s="14"/>
-      <c r="C116" s="32"/>
+      <c r="C116" s="33"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
-      <c r="F116" s="48"/>
+      <c r="F116" s="49"/>
       <c r="G116" s="14"/>
-      <c r="H116" s="35"/>
-      <c r="I116" s="32"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="33"/>
       <c r="J116" s="14"/>
       <c r="K116" s="14"/>
       <c r="L116" s="14"/>
@@ -4546,15 +4516,15 @@
       <c r="AA116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="32"/>
+      <c r="A117" s="33"/>
       <c r="B117" s="14"/>
-      <c r="C117" s="32"/>
+      <c r="C117" s="33"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
-      <c r="F117" s="48"/>
+      <c r="F117" s="49"/>
       <c r="G117" s="14"/>
-      <c r="H117" s="35"/>
-      <c r="I117" s="32"/>
+      <c r="H117" s="36"/>
+      <c r="I117" s="33"/>
       <c r="J117" s="14"/>
       <c r="K117" s="14"/>
       <c r="L117" s="14"/>
@@ -4575,15 +4545,15 @@
       <c r="AA117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="32"/>
+      <c r="A118" s="33"/>
       <c r="B118" s="14"/>
-      <c r="C118" s="32"/>
+      <c r="C118" s="33"/>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
-      <c r="F118" s="48"/>
+      <c r="F118" s="49"/>
       <c r="G118" s="14"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="32"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="33"/>
       <c r="J118" s="14"/>
       <c r="K118" s="14"/>
       <c r="L118" s="14"/>
@@ -4604,15 +4574,15 @@
       <c r="AA118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="32"/>
+      <c r="A119" s="33"/>
       <c r="B119" s="14"/>
-      <c r="C119" s="32"/>
+      <c r="C119" s="33"/>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
-      <c r="F119" s="48"/>
+      <c r="F119" s="49"/>
       <c r="G119" s="14"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="32"/>
+      <c r="H119" s="36"/>
+      <c r="I119" s="33"/>
       <c r="J119" s="14"/>
       <c r="K119" s="14"/>
       <c r="L119" s="14"/>
@@ -4633,15 +4603,15 @@
       <c r="AA119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="32"/>
+      <c r="A120" s="33"/>
       <c r="B120" s="14"/>
-      <c r="C120" s="32"/>
+      <c r="C120" s="33"/>
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
-      <c r="F120" s="48"/>
+      <c r="F120" s="49"/>
       <c r="G120" s="14"/>
-      <c r="H120" s="35"/>
-      <c r="I120" s="32"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="33"/>
       <c r="J120" s="14"/>
       <c r="K120" s="14"/>
       <c r="L120" s="14"/>
@@ -4662,15 +4632,15 @@
       <c r="AA120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="32"/>
+      <c r="A121" s="33"/>
       <c r="B121" s="14"/>
-      <c r="C121" s="32"/>
+      <c r="C121" s="33"/>
       <c r="D121" s="14"/>
       <c r="E121" s="14"/>
-      <c r="F121" s="48"/>
+      <c r="F121" s="49"/>
       <c r="G121" s="14"/>
-      <c r="H121" s="35"/>
-      <c r="I121" s="32"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="33"/>
       <c r="J121" s="14"/>
       <c r="K121" s="14"/>
       <c r="L121" s="14"/>
@@ -4691,15 +4661,15 @@
       <c r="AA121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="32"/>
+      <c r="A122" s="33"/>
       <c r="B122" s="14"/>
-      <c r="C122" s="32"/>
+      <c r="C122" s="33"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
-      <c r="F122" s="48"/>
+      <c r="F122" s="49"/>
       <c r="G122" s="14"/>
-      <c r="H122" s="35"/>
-      <c r="I122" s="32"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="33"/>
       <c r="J122" s="14"/>
       <c r="K122" s="14"/>
       <c r="L122" s="14"/>
@@ -4720,15 +4690,15 @@
       <c r="AA122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="32"/>
+      <c r="A123" s="33"/>
       <c r="B123" s="14"/>
-      <c r="C123" s="32"/>
+      <c r="C123" s="33"/>
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
-      <c r="F123" s="48"/>
+      <c r="F123" s="49"/>
       <c r="G123" s="14"/>
-      <c r="H123" s="35"/>
-      <c r="I123" s="32"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="33"/>
       <c r="J123" s="14"/>
       <c r="K123" s="14"/>
       <c r="L123" s="14"/>
@@ -4749,15 +4719,15 @@
       <c r="AA123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="32"/>
+      <c r="A124" s="33"/>
       <c r="B124" s="14"/>
-      <c r="C124" s="32"/>
+      <c r="C124" s="33"/>
       <c r="D124" s="14"/>
       <c r="E124" s="14"/>
-      <c r="F124" s="48"/>
+      <c r="F124" s="49"/>
       <c r="G124" s="14"/>
-      <c r="H124" s="35"/>
-      <c r="I124" s="32"/>
+      <c r="H124" s="36"/>
+      <c r="I124" s="33"/>
       <c r="J124" s="14"/>
       <c r="K124" s="14"/>
       <c r="L124" s="14"/>
@@ -4778,15 +4748,15 @@
       <c r="AA124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="32"/>
+      <c r="A125" s="33"/>
       <c r="B125" s="14"/>
-      <c r="C125" s="32"/>
+      <c r="C125" s="33"/>
       <c r="D125" s="14"/>
       <c r="E125" s="14"/>
-      <c r="F125" s="48"/>
+      <c r="F125" s="49"/>
       <c r="G125" s="14"/>
-      <c r="H125" s="35"/>
-      <c r="I125" s="32"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="33"/>
       <c r="J125" s="14"/>
       <c r="K125" s="14"/>
       <c r="L125" s="14"/>
@@ -4807,15 +4777,15 @@
       <c r="AA125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="32"/>
+      <c r="A126" s="33"/>
       <c r="B126" s="14"/>
-      <c r="C126" s="32"/>
+      <c r="C126" s="33"/>
       <c r="D126" s="14"/>
       <c r="E126" s="14"/>
-      <c r="F126" s="48"/>
+      <c r="F126" s="49"/>
       <c r="G126" s="14"/>
-      <c r="H126" s="35"/>
-      <c r="I126" s="32"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="33"/>
       <c r="J126" s="14"/>
       <c r="K126" s="14"/>
       <c r="L126" s="14"/>
@@ -4836,15 +4806,15 @@
       <c r="AA126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="32"/>
+      <c r="A127" s="33"/>
       <c r="B127" s="14"/>
-      <c r="C127" s="32"/>
+      <c r="C127" s="33"/>
       <c r="D127" s="14"/>
       <c r="E127" s="14"/>
-      <c r="F127" s="48"/>
+      <c r="F127" s="49"/>
       <c r="G127" s="14"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="32"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="33"/>
       <c r="J127" s="14"/>
       <c r="K127" s="14"/>
       <c r="L127" s="14"/>
@@ -4865,15 +4835,15 @@
       <c r="AA127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="32"/>
+      <c r="A128" s="33"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="32"/>
+      <c r="C128" s="33"/>
       <c r="D128" s="14"/>
       <c r="E128" s="14"/>
-      <c r="F128" s="48"/>
+      <c r="F128" s="49"/>
       <c r="G128" s="14"/>
-      <c r="H128" s="35"/>
-      <c r="I128" s="32"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="33"/>
       <c r="J128" s="14"/>
       <c r="K128" s="14"/>
       <c r="L128" s="14"/>
@@ -4894,15 +4864,15 @@
       <c r="AA128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="32"/>
+      <c r="A129" s="33"/>
       <c r="B129" s="14"/>
-      <c r="C129" s="32"/>
+      <c r="C129" s="33"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
-      <c r="F129" s="48"/>
+      <c r="F129" s="49"/>
       <c r="G129" s="14"/>
-      <c r="H129" s="35"/>
-      <c r="I129" s="32"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="33"/>
       <c r="J129" s="14"/>
       <c r="K129" s="14"/>
       <c r="L129" s="14"/>
@@ -4923,15 +4893,15 @@
       <c r="AA129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="32"/>
+      <c r="A130" s="33"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="32"/>
+      <c r="C130" s="33"/>
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
-      <c r="F130" s="48"/>
+      <c r="F130" s="49"/>
       <c r="G130" s="14"/>
-      <c r="H130" s="35"/>
-      <c r="I130" s="32"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="33"/>
       <c r="J130" s="14"/>
       <c r="K130" s="14"/>
       <c r="L130" s="14"/>
@@ -4952,15 +4922,15 @@
       <c r="AA130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="32"/>
+      <c r="A131" s="33"/>
       <c r="B131" s="14"/>
-      <c r="C131" s="32"/>
+      <c r="C131" s="33"/>
       <c r="D131" s="14"/>
       <c r="E131" s="14"/>
-      <c r="F131" s="48"/>
+      <c r="F131" s="49"/>
       <c r="G131" s="14"/>
-      <c r="H131" s="35"/>
-      <c r="I131" s="32"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="33"/>
       <c r="J131" s="14"/>
       <c r="K131" s="14"/>
       <c r="L131" s="14"/>
@@ -4981,15 +4951,15 @@
       <c r="AA131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="32"/>
+      <c r="A132" s="33"/>
       <c r="B132" s="14"/>
-      <c r="C132" s="32"/>
+      <c r="C132" s="33"/>
       <c r="D132" s="14"/>
       <c r="E132" s="14"/>
-      <c r="F132" s="48"/>
+      <c r="F132" s="49"/>
       <c r="G132" s="14"/>
-      <c r="H132" s="35"/>
-      <c r="I132" s="32"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="33"/>
       <c r="J132" s="14"/>
       <c r="K132" s="14"/>
       <c r="L132" s="14"/>
@@ -5010,15 +4980,15 @@
       <c r="AA132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="32"/>
+      <c r="A133" s="33"/>
       <c r="B133" s="14"/>
-      <c r="C133" s="32"/>
+      <c r="C133" s="33"/>
       <c r="D133" s="14"/>
       <c r="E133" s="14"/>
-      <c r="F133" s="48"/>
+      <c r="F133" s="49"/>
       <c r="G133" s="14"/>
-      <c r="H133" s="35"/>
-      <c r="I133" s="32"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="33"/>
       <c r="J133" s="14"/>
       <c r="K133" s="14"/>
       <c r="L133" s="14"/>
@@ -5039,15 +5009,15 @@
       <c r="AA133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="32"/>
+      <c r="A134" s="33"/>
       <c r="B134" s="14"/>
-      <c r="C134" s="32"/>
+      <c r="C134" s="33"/>
       <c r="D134" s="14"/>
       <c r="E134" s="14"/>
-      <c r="F134" s="48"/>
+      <c r="F134" s="49"/>
       <c r="G134" s="14"/>
-      <c r="H134" s="35"/>
-      <c r="I134" s="32"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="33"/>
       <c r="J134" s="14"/>
       <c r="K134" s="14"/>
       <c r="L134" s="14"/>
@@ -5068,15 +5038,15 @@
       <c r="AA134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="32"/>
+      <c r="A135" s="33"/>
       <c r="B135" s="14"/>
-      <c r="C135" s="32"/>
+      <c r="C135" s="33"/>
       <c r="D135" s="14"/>
       <c r="E135" s="14"/>
-      <c r="F135" s="48"/>
+      <c r="F135" s="49"/>
       <c r="G135" s="14"/>
-      <c r="H135" s="35"/>
-      <c r="I135" s="32"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="33"/>
       <c r="J135" s="14"/>
       <c r="K135" s="14"/>
       <c r="L135" s="14"/>
@@ -5097,15 +5067,15 @@
       <c r="AA135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="32"/>
+      <c r="A136" s="33"/>
       <c r="B136" s="14"/>
-      <c r="C136" s="32"/>
+      <c r="C136" s="33"/>
       <c r="D136" s="14"/>
       <c r="E136" s="14"/>
-      <c r="F136" s="48"/>
+      <c r="F136" s="49"/>
       <c r="G136" s="14"/>
-      <c r="H136" s="35"/>
-      <c r="I136" s="32"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="33"/>
       <c r="J136" s="14"/>
       <c r="K136" s="14"/>
       <c r="L136" s="14"/>
@@ -5126,15 +5096,15 @@
       <c r="AA136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="32"/>
+      <c r="A137" s="33"/>
       <c r="B137" s="14"/>
-      <c r="C137" s="32"/>
+      <c r="C137" s="33"/>
       <c r="D137" s="14"/>
       <c r="E137" s="14"/>
-      <c r="F137" s="48"/>
+      <c r="F137" s="49"/>
       <c r="G137" s="14"/>
-      <c r="H137" s="35"/>
-      <c r="I137" s="32"/>
+      <c r="H137" s="36"/>
+      <c r="I137" s="33"/>
       <c r="J137" s="14"/>
       <c r="K137" s="14"/>
       <c r="L137" s="14"/>
@@ -5155,15 +5125,15 @@
       <c r="AA137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="32"/>
+      <c r="A138" s="33"/>
       <c r="B138" s="14"/>
-      <c r="C138" s="32"/>
+      <c r="C138" s="33"/>
       <c r="D138" s="14"/>
       <c r="E138" s="14"/>
-      <c r="F138" s="48"/>
+      <c r="F138" s="49"/>
       <c r="G138" s="14"/>
-      <c r="H138" s="35"/>
-      <c r="I138" s="32"/>
+      <c r="H138" s="36"/>
+      <c r="I138" s="33"/>
       <c r="J138" s="14"/>
       <c r="K138" s="14"/>
       <c r="L138" s="14"/>
@@ -5184,15 +5154,15 @@
       <c r="AA138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="32"/>
+      <c r="A139" s="33"/>
       <c r="B139" s="14"/>
-      <c r="C139" s="32"/>
+      <c r="C139" s="33"/>
       <c r="D139" s="14"/>
       <c r="E139" s="14"/>
-      <c r="F139" s="48"/>
+      <c r="F139" s="49"/>
       <c r="G139" s="14"/>
-      <c r="H139" s="35"/>
-      <c r="I139" s="32"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="33"/>
       <c r="J139" s="14"/>
       <c r="K139" s="14"/>
       <c r="L139" s="14"/>
@@ -5213,15 +5183,15 @@
       <c r="AA139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="32"/>
+      <c r="A140" s="33"/>
       <c r="B140" s="14"/>
-      <c r="C140" s="32"/>
+      <c r="C140" s="33"/>
       <c r="D140" s="14"/>
       <c r="E140" s="14"/>
-      <c r="F140" s="48"/>
+      <c r="F140" s="49"/>
       <c r="G140" s="14"/>
-      <c r="H140" s="35"/>
-      <c r="I140" s="32"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="33"/>
       <c r="J140" s="14"/>
       <c r="K140" s="14"/>
       <c r="L140" s="14"/>
@@ -5242,15 +5212,15 @@
       <c r="AA140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="32"/>
+      <c r="A141" s="33"/>
       <c r="B141" s="14"/>
-      <c r="C141" s="32"/>
+      <c r="C141" s="33"/>
       <c r="D141" s="14"/>
       <c r="E141" s="14"/>
-      <c r="F141" s="48"/>
+      <c r="F141" s="49"/>
       <c r="G141" s="14"/>
-      <c r="H141" s="35"/>
-      <c r="I141" s="32"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="33"/>
       <c r="J141" s="14"/>
       <c r="K141" s="14"/>
       <c r="L141" s="14"/>
@@ -5271,15 +5241,15 @@
       <c r="AA141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="32"/>
+      <c r="A142" s="33"/>
       <c r="B142" s="14"/>
-      <c r="C142" s="32"/>
+      <c r="C142" s="33"/>
       <c r="D142" s="14"/>
       <c r="E142" s="14"/>
-      <c r="F142" s="48"/>
+      <c r="F142" s="49"/>
       <c r="G142" s="14"/>
-      <c r="H142" s="35"/>
-      <c r="I142" s="32"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="33"/>
       <c r="J142" s="14"/>
       <c r="K142" s="14"/>
       <c r="L142" s="14"/>
@@ -5300,15 +5270,15 @@
       <c r="AA142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="32"/>
+      <c r="A143" s="33"/>
       <c r="B143" s="14"/>
-      <c r="C143" s="32"/>
+      <c r="C143" s="33"/>
       <c r="D143" s="14"/>
       <c r="E143" s="14"/>
-      <c r="F143" s="48"/>
+      <c r="F143" s="49"/>
       <c r="G143" s="14"/>
-      <c r="H143" s="35"/>
-      <c r="I143" s="32"/>
+      <c r="H143" s="36"/>
+      <c r="I143" s="33"/>
       <c r="J143" s="14"/>
       <c r="K143" s="14"/>
       <c r="L143" s="14"/>
@@ -5329,15 +5299,15 @@
       <c r="AA143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="32"/>
+      <c r="A144" s="33"/>
       <c r="B144" s="14"/>
-      <c r="C144" s="32"/>
+      <c r="C144" s="33"/>
       <c r="D144" s="14"/>
       <c r="E144" s="14"/>
-      <c r="F144" s="48"/>
+      <c r="F144" s="49"/>
       <c r="G144" s="14"/>
-      <c r="H144" s="35"/>
-      <c r="I144" s="32"/>
+      <c r="H144" s="36"/>
+      <c r="I144" s="33"/>
       <c r="J144" s="14"/>
       <c r="K144" s="14"/>
       <c r="L144" s="14"/>
@@ -5358,15 +5328,15 @@
       <c r="AA144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="32"/>
+      <c r="A145" s="33"/>
       <c r="B145" s="14"/>
-      <c r="C145" s="32"/>
+      <c r="C145" s="33"/>
       <c r="D145" s="14"/>
       <c r="E145" s="14"/>
-      <c r="F145" s="48"/>
+      <c r="F145" s="49"/>
       <c r="G145" s="14"/>
-      <c r="H145" s="35"/>
-      <c r="I145" s="32"/>
+      <c r="H145" s="36"/>
+      <c r="I145" s="33"/>
       <c r="J145" s="14"/>
       <c r="K145" s="14"/>
       <c r="L145" s="14"/>
@@ -5387,15 +5357,15 @@
       <c r="AA145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="32"/>
+      <c r="A146" s="33"/>
       <c r="B146" s="14"/>
-      <c r="C146" s="32"/>
+      <c r="C146" s="33"/>
       <c r="D146" s="14"/>
       <c r="E146" s="14"/>
-      <c r="F146" s="48"/>
+      <c r="F146" s="49"/>
       <c r="G146" s="14"/>
-      <c r="H146" s="35"/>
-      <c r="I146" s="32"/>
+      <c r="H146" s="36"/>
+      <c r="I146" s="33"/>
       <c r="J146" s="14"/>
       <c r="K146" s="14"/>
       <c r="L146" s="14"/>
@@ -5416,15 +5386,15 @@
       <c r="AA146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="32"/>
+      <c r="A147" s="33"/>
       <c r="B147" s="14"/>
-      <c r="C147" s="32"/>
+      <c r="C147" s="33"/>
       <c r="D147" s="14"/>
       <c r="E147" s="14"/>
-      <c r="F147" s="48"/>
+      <c r="F147" s="49"/>
       <c r="G147" s="14"/>
-      <c r="H147" s="35"/>
-      <c r="I147" s="32"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="33"/>
       <c r="J147" s="14"/>
       <c r="K147" s="14"/>
       <c r="L147" s="14"/>
@@ -5445,15 +5415,15 @@
       <c r="AA147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="32"/>
+      <c r="A148" s="33"/>
       <c r="B148" s="14"/>
-      <c r="C148" s="32"/>
+      <c r="C148" s="33"/>
       <c r="D148" s="14"/>
       <c r="E148" s="14"/>
-      <c r="F148" s="48"/>
+      <c r="F148" s="49"/>
       <c r="G148" s="14"/>
-      <c r="H148" s="35"/>
-      <c r="I148" s="32"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="33"/>
       <c r="J148" s="14"/>
       <c r="K148" s="14"/>
       <c r="L148" s="14"/>
@@ -5474,15 +5444,15 @@
       <c r="AA148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="32"/>
+      <c r="A149" s="33"/>
       <c r="B149" s="14"/>
-      <c r="C149" s="32"/>
+      <c r="C149" s="33"/>
       <c r="D149" s="14"/>
       <c r="E149" s="14"/>
-      <c r="F149" s="48"/>
+      <c r="F149" s="49"/>
       <c r="G149" s="14"/>
-      <c r="H149" s="35"/>
-      <c r="I149" s="32"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="33"/>
       <c r="J149" s="14"/>
       <c r="K149" s="14"/>
       <c r="L149" s="14"/>
@@ -5503,15 +5473,15 @@
       <c r="AA149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="32"/>
+      <c r="A150" s="33"/>
       <c r="B150" s="14"/>
-      <c r="C150" s="32"/>
+      <c r="C150" s="33"/>
       <c r="D150" s="14"/>
       <c r="E150" s="14"/>
-      <c r="F150" s="48"/>
+      <c r="F150" s="49"/>
       <c r="G150" s="14"/>
-      <c r="H150" s="35"/>
-      <c r="I150" s="32"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="33"/>
       <c r="J150" s="14"/>
       <c r="K150" s="14"/>
       <c r="L150" s="14"/>
@@ -5532,15 +5502,15 @@
       <c r="AA150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="32"/>
+      <c r="A151" s="33"/>
       <c r="B151" s="14"/>
-      <c r="C151" s="32"/>
+      <c r="C151" s="33"/>
       <c r="D151" s="14"/>
       <c r="E151" s="14"/>
-      <c r="F151" s="48"/>
+      <c r="F151" s="49"/>
       <c r="G151" s="14"/>
-      <c r="H151" s="35"/>
-      <c r="I151" s="32"/>
+      <c r="H151" s="36"/>
+      <c r="I151" s="33"/>
       <c r="J151" s="14"/>
       <c r="K151" s="14"/>
       <c r="L151" s="14"/>
@@ -5561,15 +5531,15 @@
       <c r="AA151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="32"/>
+      <c r="A152" s="33"/>
       <c r="B152" s="14"/>
-      <c r="C152" s="32"/>
+      <c r="C152" s="33"/>
       <c r="D152" s="14"/>
       <c r="E152" s="14"/>
-      <c r="F152" s="48"/>
+      <c r="F152" s="49"/>
       <c r="G152" s="14"/>
-      <c r="H152" s="35"/>
-      <c r="I152" s="32"/>
+      <c r="H152" s="36"/>
+      <c r="I152" s="33"/>
       <c r="J152" s="14"/>
       <c r="K152" s="14"/>
       <c r="L152" s="14"/>
@@ -5590,15 +5560,15 @@
       <c r="AA152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="32"/>
+      <c r="A153" s="33"/>
       <c r="B153" s="14"/>
-      <c r="C153" s="32"/>
+      <c r="C153" s="33"/>
       <c r="D153" s="14"/>
       <c r="E153" s="14"/>
-      <c r="F153" s="48"/>
+      <c r="F153" s="49"/>
       <c r="G153" s="14"/>
-      <c r="H153" s="35"/>
-      <c r="I153" s="32"/>
+      <c r="H153" s="36"/>
+      <c r="I153" s="33"/>
       <c r="J153" s="14"/>
       <c r="K153" s="14"/>
       <c r="L153" s="14"/>
@@ -5619,15 +5589,15 @@
       <c r="AA153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="32"/>
+      <c r="A154" s="33"/>
       <c r="B154" s="14"/>
-      <c r="C154" s="32"/>
+      <c r="C154" s="33"/>
       <c r="D154" s="14"/>
       <c r="E154" s="14"/>
-      <c r="F154" s="48"/>
+      <c r="F154" s="49"/>
       <c r="G154" s="14"/>
-      <c r="H154" s="35"/>
-      <c r="I154" s="32"/>
+      <c r="H154" s="36"/>
+      <c r="I154" s="33"/>
       <c r="J154" s="14"/>
       <c r="K154" s="14"/>
       <c r="L154" s="14"/>
@@ -5648,15 +5618,15 @@
       <c r="AA154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="32"/>
+      <c r="A155" s="33"/>
       <c r="B155" s="14"/>
-      <c r="C155" s="32"/>
+      <c r="C155" s="33"/>
       <c r="D155" s="14"/>
       <c r="E155" s="14"/>
-      <c r="F155" s="48"/>
+      <c r="F155" s="49"/>
       <c r="G155" s="14"/>
-      <c r="H155" s="35"/>
-      <c r="I155" s="32"/>
+      <c r="H155" s="36"/>
+      <c r="I155" s="33"/>
       <c r="J155" s="14"/>
       <c r="K155" s="14"/>
       <c r="L155" s="14"/>
@@ -5677,15 +5647,15 @@
       <c r="AA155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="32"/>
+      <c r="A156" s="33"/>
       <c r="B156" s="14"/>
-      <c r="C156" s="32"/>
+      <c r="C156" s="33"/>
       <c r="D156" s="14"/>
       <c r="E156" s="14"/>
-      <c r="F156" s="48"/>
+      <c r="F156" s="49"/>
       <c r="G156" s="14"/>
-      <c r="H156" s="35"/>
-      <c r="I156" s="32"/>
+      <c r="H156" s="36"/>
+      <c r="I156" s="33"/>
       <c r="J156" s="14"/>
       <c r="K156" s="14"/>
       <c r="L156" s="14"/>
@@ -5706,15 +5676,15 @@
       <c r="AA156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="32"/>
+      <c r="A157" s="33"/>
       <c r="B157" s="14"/>
-      <c r="C157" s="32"/>
+      <c r="C157" s="33"/>
       <c r="D157" s="14"/>
       <c r="E157" s="14"/>
-      <c r="F157" s="48"/>
+      <c r="F157" s="49"/>
       <c r="G157" s="14"/>
-      <c r="H157" s="35"/>
-      <c r="I157" s="32"/>
+      <c r="H157" s="36"/>
+      <c r="I157" s="33"/>
       <c r="J157" s="14"/>
       <c r="K157" s="14"/>
       <c r="L157" s="14"/>
@@ -5735,15 +5705,15 @@
       <c r="AA157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="32"/>
+      <c r="A158" s="33"/>
       <c r="B158" s="14"/>
-      <c r="C158" s="32"/>
+      <c r="C158" s="33"/>
       <c r="D158" s="14"/>
       <c r="E158" s="14"/>
-      <c r="F158" s="48"/>
+      <c r="F158" s="49"/>
       <c r="G158" s="14"/>
-      <c r="H158" s="35"/>
-      <c r="I158" s="32"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="33"/>
       <c r="J158" s="14"/>
       <c r="K158" s="14"/>
       <c r="L158" s="14"/>
@@ -5764,15 +5734,15 @@
       <c r="AA158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="32"/>
+      <c r="A159" s="33"/>
       <c r="B159" s="14"/>
-      <c r="C159" s="32"/>
+      <c r="C159" s="33"/>
       <c r="D159" s="14"/>
       <c r="E159" s="14"/>
-      <c r="F159" s="48"/>
+      <c r="F159" s="49"/>
       <c r="G159" s="14"/>
-      <c r="H159" s="35"/>
-      <c r="I159" s="32"/>
+      <c r="H159" s="36"/>
+      <c r="I159" s="33"/>
       <c r="J159" s="14"/>
       <c r="K159" s="14"/>
       <c r="L159" s="14"/>
@@ -5793,15 +5763,15 @@
       <c r="AA159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="32"/>
+      <c r="A160" s="33"/>
       <c r="B160" s="14"/>
-      <c r="C160" s="32"/>
+      <c r="C160" s="33"/>
       <c r="D160" s="14"/>
       <c r="E160" s="14"/>
-      <c r="F160" s="48"/>
+      <c r="F160" s="49"/>
       <c r="G160" s="14"/>
-      <c r="H160" s="35"/>
-      <c r="I160" s="32"/>
+      <c r="H160" s="36"/>
+      <c r="I160" s="33"/>
       <c r="J160" s="14"/>
       <c r="K160" s="14"/>
       <c r="L160" s="14"/>
@@ -5822,15 +5792,15 @@
       <c r="AA160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="32"/>
+      <c r="A161" s="33"/>
       <c r="B161" s="14"/>
-      <c r="C161" s="32"/>
+      <c r="C161" s="33"/>
       <c r="D161" s="14"/>
       <c r="E161" s="14"/>
-      <c r="F161" s="48"/>
+      <c r="F161" s="49"/>
       <c r="G161" s="14"/>
-      <c r="H161" s="35"/>
-      <c r="I161" s="32"/>
+      <c r="H161" s="36"/>
+      <c r="I161" s="33"/>
       <c r="J161" s="14"/>
       <c r="K161" s="14"/>
       <c r="L161" s="14"/>
@@ -5851,15 +5821,15 @@
       <c r="AA161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="32"/>
+      <c r="A162" s="33"/>
       <c r="B162" s="14"/>
-      <c r="C162" s="32"/>
+      <c r="C162" s="33"/>
       <c r="D162" s="14"/>
       <c r="E162" s="14"/>
-      <c r="F162" s="48"/>
+      <c r="F162" s="49"/>
       <c r="G162" s="14"/>
-      <c r="H162" s="35"/>
-      <c r="I162" s="32"/>
+      <c r="H162" s="36"/>
+      <c r="I162" s="33"/>
       <c r="J162" s="14"/>
       <c r="K162" s="14"/>
       <c r="L162" s="14"/>
@@ -5880,15 +5850,15 @@
       <c r="AA162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="32"/>
+      <c r="A163" s="33"/>
       <c r="B163" s="14"/>
-      <c r="C163" s="32"/>
+      <c r="C163" s="33"/>
       <c r="D163" s="14"/>
       <c r="E163" s="14"/>
-      <c r="F163" s="48"/>
+      <c r="F163" s="49"/>
       <c r="G163" s="14"/>
-      <c r="H163" s="35"/>
-      <c r="I163" s="32"/>
+      <c r="H163" s="36"/>
+      <c r="I163" s="33"/>
       <c r="J163" s="14"/>
       <c r="K163" s="14"/>
       <c r="L163" s="14"/>
@@ -5909,15 +5879,15 @@
       <c r="AA163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="32"/>
+      <c r="A164" s="33"/>
       <c r="B164" s="14"/>
-      <c r="C164" s="32"/>
+      <c r="C164" s="33"/>
       <c r="D164" s="14"/>
       <c r="E164" s="14"/>
-      <c r="F164" s="48"/>
+      <c r="F164" s="49"/>
       <c r="G164" s="14"/>
-      <c r="H164" s="35"/>
-      <c r="I164" s="32"/>
+      <c r="H164" s="36"/>
+      <c r="I164" s="33"/>
       <c r="J164" s="14"/>
       <c r="K164" s="14"/>
       <c r="L164" s="14"/>
@@ -5938,15 +5908,15 @@
       <c r="AA164" s="6"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="32"/>
+      <c r="A165" s="33"/>
       <c r="B165" s="14"/>
-      <c r="C165" s="32"/>
+      <c r="C165" s="33"/>
       <c r="D165" s="14"/>
       <c r="E165" s="14"/>
-      <c r="F165" s="48"/>
+      <c r="F165" s="49"/>
       <c r="G165" s="14"/>
-      <c r="H165" s="35"/>
-      <c r="I165" s="32"/>
+      <c r="H165" s="36"/>
+      <c r="I165" s="33"/>
       <c r="J165" s="14"/>
       <c r="K165" s="14"/>
       <c r="L165" s="14"/>
@@ -5967,15 +5937,15 @@
       <c r="AA165" s="6"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="32"/>
+      <c r="A166" s="33"/>
       <c r="B166" s="14"/>
-      <c r="C166" s="32"/>
+      <c r="C166" s="33"/>
       <c r="D166" s="14"/>
       <c r="E166" s="14"/>
-      <c r="F166" s="48"/>
+      <c r="F166" s="49"/>
       <c r="G166" s="14"/>
-      <c r="H166" s="35"/>
-      <c r="I166" s="32"/>
+      <c r="H166" s="36"/>
+      <c r="I166" s="33"/>
       <c r="J166" s="14"/>
       <c r="K166" s="14"/>
       <c r="L166" s="14"/>
@@ -5996,15 +5966,15 @@
       <c r="AA166" s="6"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="32"/>
+      <c r="A167" s="33"/>
       <c r="B167" s="14"/>
-      <c r="C167" s="32"/>
+      <c r="C167" s="33"/>
       <c r="D167" s="14"/>
       <c r="E167" s="14"/>
-      <c r="F167" s="48"/>
+      <c r="F167" s="49"/>
       <c r="G167" s="14"/>
-      <c r="H167" s="35"/>
-      <c r="I167" s="32"/>
+      <c r="H167" s="36"/>
+      <c r="I167" s="33"/>
       <c r="J167" s="14"/>
       <c r="K167" s="14"/>
       <c r="L167" s="14"/>
@@ -6025,15 +5995,15 @@
       <c r="AA167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="32"/>
+      <c r="A168" s="33"/>
       <c r="B168" s="14"/>
-      <c r="C168" s="32"/>
+      <c r="C168" s="33"/>
       <c r="D168" s="14"/>
       <c r="E168" s="14"/>
-      <c r="F168" s="48"/>
+      <c r="F168" s="49"/>
       <c r="G168" s="14"/>
-      <c r="H168" s="35"/>
-      <c r="I168" s="32"/>
+      <c r="H168" s="36"/>
+      <c r="I168" s="33"/>
       <c r="J168" s="14"/>
       <c r="K168" s="14"/>
       <c r="L168" s="14"/>
@@ -6054,15 +6024,15 @@
       <c r="AA168" s="6"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="32"/>
+      <c r="A169" s="33"/>
       <c r="B169" s="14"/>
-      <c r="C169" s="32"/>
+      <c r="C169" s="33"/>
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
-      <c r="F169" s="48"/>
+      <c r="F169" s="49"/>
       <c r="G169" s="14"/>
-      <c r="H169" s="35"/>
-      <c r="I169" s="32"/>
+      <c r="H169" s="36"/>
+      <c r="I169" s="33"/>
       <c r="J169" s="14"/>
       <c r="K169" s="14"/>
       <c r="L169" s="14"/>
@@ -6083,15 +6053,15 @@
       <c r="AA169" s="6"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="32"/>
+      <c r="A170" s="33"/>
       <c r="B170" s="14"/>
-      <c r="C170" s="32"/>
+      <c r="C170" s="33"/>
       <c r="D170" s="14"/>
       <c r="E170" s="14"/>
-      <c r="F170" s="48"/>
+      <c r="F170" s="49"/>
       <c r="G170" s="14"/>
-      <c r="H170" s="35"/>
-      <c r="I170" s="32"/>
+      <c r="H170" s="36"/>
+      <c r="I170" s="33"/>
       <c r="J170" s="14"/>
       <c r="K170" s="14"/>
       <c r="L170" s="14"/>
@@ -6112,15 +6082,15 @@
       <c r="AA170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="32"/>
+      <c r="A171" s="33"/>
       <c r="B171" s="14"/>
-      <c r="C171" s="32"/>
+      <c r="C171" s="33"/>
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
-      <c r="F171" s="48"/>
+      <c r="F171" s="49"/>
       <c r="G171" s="14"/>
-      <c r="H171" s="35"/>
-      <c r="I171" s="32"/>
+      <c r="H171" s="36"/>
+      <c r="I171" s="33"/>
       <c r="J171" s="14"/>
       <c r="K171" s="14"/>
       <c r="L171" s="14"/>
@@ -6141,15 +6111,15 @@
       <c r="AA171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="32"/>
+      <c r="A172" s="33"/>
       <c r="B172" s="14"/>
-      <c r="C172" s="32"/>
+      <c r="C172" s="33"/>
       <c r="D172" s="14"/>
       <c r="E172" s="14"/>
-      <c r="F172" s="48"/>
+      <c r="F172" s="49"/>
       <c r="G172" s="14"/>
-      <c r="H172" s="35"/>
-      <c r="I172" s="32"/>
+      <c r="H172" s="36"/>
+      <c r="I172" s="33"/>
       <c r="J172" s="14"/>
       <c r="K172" s="14"/>
       <c r="L172" s="14"/>
@@ -6170,15 +6140,15 @@
       <c r="AA172" s="6"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="32"/>
+      <c r="A173" s="33"/>
       <c r="B173" s="14"/>
-      <c r="C173" s="32"/>
+      <c r="C173" s="33"/>
       <c r="D173" s="14"/>
       <c r="E173" s="14"/>
-      <c r="F173" s="48"/>
+      <c r="F173" s="49"/>
       <c r="G173" s="14"/>
-      <c r="H173" s="35"/>
-      <c r="I173" s="32"/>
+      <c r="H173" s="36"/>
+      <c r="I173" s="33"/>
       <c r="J173" s="14"/>
       <c r="K173" s="14"/>
       <c r="L173" s="14"/>
@@ -6199,15 +6169,15 @@
       <c r="AA173" s="6"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="32"/>
+      <c r="A174" s="33"/>
       <c r="B174" s="14"/>
-      <c r="C174" s="32"/>
+      <c r="C174" s="33"/>
       <c r="D174" s="14"/>
       <c r="E174" s="14"/>
-      <c r="F174" s="48"/>
+      <c r="F174" s="49"/>
       <c r="G174" s="14"/>
-      <c r="H174" s="35"/>
-      <c r="I174" s="32"/>
+      <c r="H174" s="36"/>
+      <c r="I174" s="33"/>
       <c r="J174" s="14"/>
       <c r="K174" s="14"/>
       <c r="L174" s="14"/>
@@ -6228,15 +6198,15 @@
       <c r="AA174" s="6"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="32"/>
+      <c r="A175" s="33"/>
       <c r="B175" s="14"/>
-      <c r="C175" s="32"/>
+      <c r="C175" s="33"/>
       <c r="D175" s="14"/>
       <c r="E175" s="14"/>
-      <c r="F175" s="48"/>
+      <c r="F175" s="49"/>
       <c r="G175" s="14"/>
-      <c r="H175" s="35"/>
-      <c r="I175" s="32"/>
+      <c r="H175" s="36"/>
+      <c r="I175" s="33"/>
       <c r="J175" s="14"/>
       <c r="K175" s="14"/>
       <c r="L175" s="14"/>
@@ -6257,15 +6227,15 @@
       <c r="AA175" s="6"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="32"/>
+      <c r="A176" s="33"/>
       <c r="B176" s="14"/>
-      <c r="C176" s="32"/>
+      <c r="C176" s="33"/>
       <c r="D176" s="14"/>
       <c r="E176" s="14"/>
-      <c r="F176" s="48"/>
+      <c r="F176" s="49"/>
       <c r="G176" s="14"/>
-      <c r="H176" s="35"/>
-      <c r="I176" s="32"/>
+      <c r="H176" s="36"/>
+      <c r="I176" s="33"/>
       <c r="J176" s="14"/>
       <c r="K176" s="14"/>
       <c r="L176" s="14"/>
@@ -6286,15 +6256,15 @@
       <c r="AA176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="32"/>
+      <c r="A177" s="33"/>
       <c r="B177" s="14"/>
-      <c r="C177" s="32"/>
+      <c r="C177" s="33"/>
       <c r="D177" s="14"/>
       <c r="E177" s="14"/>
-      <c r="F177" s="48"/>
+      <c r="F177" s="49"/>
       <c r="G177" s="14"/>
-      <c r="H177" s="35"/>
-      <c r="I177" s="32"/>
+      <c r="H177" s="36"/>
+      <c r="I177" s="33"/>
       <c r="J177" s="14"/>
       <c r="K177" s="14"/>
       <c r="L177" s="14"/>
@@ -6315,15 +6285,15 @@
       <c r="AA177" s="6"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="32"/>
+      <c r="A178" s="33"/>
       <c r="B178" s="14"/>
-      <c r="C178" s="32"/>
+      <c r="C178" s="33"/>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
-      <c r="F178" s="48"/>
+      <c r="F178" s="49"/>
       <c r="G178" s="14"/>
-      <c r="H178" s="35"/>
-      <c r="I178" s="32"/>
+      <c r="H178" s="36"/>
+      <c r="I178" s="33"/>
       <c r="J178" s="14"/>
       <c r="K178" s="14"/>
       <c r="L178" s="14"/>
@@ -6344,15 +6314,15 @@
       <c r="AA178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="32"/>
+      <c r="A179" s="33"/>
       <c r="B179" s="14"/>
-      <c r="C179" s="32"/>
+      <c r="C179" s="33"/>
       <c r="D179" s="14"/>
       <c r="E179" s="14"/>
-      <c r="F179" s="48"/>
+      <c r="F179" s="49"/>
       <c r="G179" s="14"/>
-      <c r="H179" s="35"/>
-      <c r="I179" s="32"/>
+      <c r="H179" s="36"/>
+      <c r="I179" s="33"/>
       <c r="J179" s="14"/>
       <c r="K179" s="14"/>
       <c r="L179" s="14"/>
@@ -6373,15 +6343,15 @@
       <c r="AA179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="32"/>
+      <c r="A180" s="33"/>
       <c r="B180" s="14"/>
-      <c r="C180" s="32"/>
+      <c r="C180" s="33"/>
       <c r="D180" s="14"/>
       <c r="E180" s="14"/>
-      <c r="F180" s="48"/>
+      <c r="F180" s="49"/>
       <c r="G180" s="14"/>
-      <c r="H180" s="35"/>
-      <c r="I180" s="32"/>
+      <c r="H180" s="36"/>
+      <c r="I180" s="33"/>
       <c r="J180" s="14"/>
       <c r="K180" s="14"/>
       <c r="L180" s="14"/>
@@ -6402,15 +6372,15 @@
       <c r="AA180" s="6"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="32"/>
+      <c r="A181" s="33"/>
       <c r="B181" s="14"/>
-      <c r="C181" s="32"/>
+      <c r="C181" s="33"/>
       <c r="D181" s="14"/>
       <c r="E181" s="14"/>
-      <c r="F181" s="48"/>
+      <c r="F181" s="49"/>
       <c r="G181" s="14"/>
-      <c r="H181" s="35"/>
-      <c r="I181" s="32"/>
+      <c r="H181" s="36"/>
+      <c r="I181" s="33"/>
       <c r="J181" s="14"/>
       <c r="K181" s="14"/>
       <c r="L181" s="14"/>
@@ -6431,15 +6401,15 @@
       <c r="AA181" s="6"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="32"/>
+      <c r="A182" s="33"/>
       <c r="B182" s="14"/>
-      <c r="C182" s="32"/>
+      <c r="C182" s="33"/>
       <c r="D182" s="14"/>
       <c r="E182" s="14"/>
-      <c r="F182" s="48"/>
+      <c r="F182" s="49"/>
       <c r="G182" s="14"/>
-      <c r="H182" s="35"/>
-      <c r="I182" s="32"/>
+      <c r="H182" s="36"/>
+      <c r="I182" s="33"/>
       <c r="J182" s="14"/>
       <c r="K182" s="14"/>
       <c r="L182" s="14"/>
@@ -6460,15 +6430,15 @@
       <c r="AA182" s="6"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="32"/>
+      <c r="A183" s="33"/>
       <c r="B183" s="14"/>
-      <c r="C183" s="32"/>
+      <c r="C183" s="33"/>
       <c r="D183" s="14"/>
       <c r="E183" s="14"/>
-      <c r="F183" s="48"/>
+      <c r="F183" s="49"/>
       <c r="G183" s="14"/>
-      <c r="H183" s="35"/>
-      <c r="I183" s="32"/>
+      <c r="H183" s="36"/>
+      <c r="I183" s="33"/>
       <c r="J183" s="14"/>
       <c r="K183" s="14"/>
       <c r="L183" s="14"/>
@@ -6489,15 +6459,15 @@
       <c r="AA183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="32"/>
+      <c r="A184" s="33"/>
       <c r="B184" s="14"/>
-      <c r="C184" s="32"/>
+      <c r="C184" s="33"/>
       <c r="D184" s="14"/>
       <c r="E184" s="14"/>
-      <c r="F184" s="48"/>
+      <c r="F184" s="49"/>
       <c r="G184" s="14"/>
-      <c r="H184" s="35"/>
-      <c r="I184" s="32"/>
+      <c r="H184" s="36"/>
+      <c r="I184" s="33"/>
       <c r="J184" s="14"/>
       <c r="K184" s="14"/>
       <c r="L184" s="14"/>
@@ -6518,15 +6488,15 @@
       <c r="AA184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="32"/>
+      <c r="A185" s="33"/>
       <c r="B185" s="14"/>
-      <c r="C185" s="32"/>
+      <c r="C185" s="33"/>
       <c r="D185" s="14"/>
       <c r="E185" s="14"/>
-      <c r="F185" s="48"/>
+      <c r="F185" s="49"/>
       <c r="G185" s="14"/>
-      <c r="H185" s="35"/>
-      <c r="I185" s="32"/>
+      <c r="H185" s="36"/>
+      <c r="I185" s="33"/>
       <c r="J185" s="14"/>
       <c r="K185" s="14"/>
       <c r="L185" s="14"/>
@@ -6547,15 +6517,15 @@
       <c r="AA185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="32"/>
+      <c r="A186" s="33"/>
       <c r="B186" s="14"/>
-      <c r="C186" s="32"/>
+      <c r="C186" s="33"/>
       <c r="D186" s="14"/>
       <c r="E186" s="14"/>
-      <c r="F186" s="48"/>
+      <c r="F186" s="49"/>
       <c r="G186" s="14"/>
-      <c r="H186" s="35"/>
-      <c r="I186" s="32"/>
+      <c r="H186" s="36"/>
+      <c r="I186" s="33"/>
       <c r="J186" s="14"/>
       <c r="K186" s="14"/>
       <c r="L186" s="14"/>
@@ -6576,15 +6546,15 @@
       <c r="AA186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="32"/>
+      <c r="A187" s="33"/>
       <c r="B187" s="14"/>
-      <c r="C187" s="32"/>
+      <c r="C187" s="33"/>
       <c r="D187" s="14"/>
       <c r="E187" s="14"/>
-      <c r="F187" s="48"/>
+      <c r="F187" s="49"/>
       <c r="G187" s="14"/>
-      <c r="H187" s="35"/>
-      <c r="I187" s="32"/>
+      <c r="H187" s="36"/>
+      <c r="I187" s="33"/>
       <c r="J187" s="14"/>
       <c r="K187" s="14"/>
       <c r="L187" s="14"/>
@@ -6605,15 +6575,15 @@
       <c r="AA187" s="6"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="32"/>
+      <c r="A188" s="33"/>
       <c r="B188" s="14"/>
-      <c r="C188" s="32"/>
+      <c r="C188" s="33"/>
       <c r="D188" s="14"/>
       <c r="E188" s="14"/>
-      <c r="F188" s="48"/>
+      <c r="F188" s="49"/>
       <c r="G188" s="14"/>
-      <c r="H188" s="35"/>
-      <c r="I188" s="32"/>
+      <c r="H188" s="36"/>
+      <c r="I188" s="33"/>
       <c r="J188" s="14"/>
       <c r="K188" s="14"/>
       <c r="L188" s="14"/>
@@ -6634,15 +6604,15 @@
       <c r="AA188" s="6"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="32"/>
+      <c r="A189" s="33"/>
       <c r="B189" s="14"/>
-      <c r="C189" s="32"/>
+      <c r="C189" s="33"/>
       <c r="D189" s="14"/>
       <c r="E189" s="14"/>
-      <c r="F189" s="48"/>
+      <c r="F189" s="49"/>
       <c r="G189" s="14"/>
-      <c r="H189" s="35"/>
-      <c r="I189" s="32"/>
+      <c r="H189" s="36"/>
+      <c r="I189" s="33"/>
       <c r="J189" s="14"/>
       <c r="K189" s="14"/>
       <c r="L189" s="14"/>
@@ -6663,15 +6633,15 @@
       <c r="AA189" s="6"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="32"/>
+      <c r="A190" s="33"/>
       <c r="B190" s="14"/>
-      <c r="C190" s="32"/>
+      <c r="C190" s="33"/>
       <c r="D190" s="14"/>
       <c r="E190" s="14"/>
-      <c r="F190" s="48"/>
+      <c r="F190" s="49"/>
       <c r="G190" s="14"/>
-      <c r="H190" s="35"/>
-      <c r="I190" s="32"/>
+      <c r="H190" s="36"/>
+      <c r="I190" s="33"/>
       <c r="J190" s="14"/>
       <c r="K190" s="14"/>
       <c r="L190" s="14"/>
@@ -6692,15 +6662,15 @@
       <c r="AA190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="32"/>
+      <c r="A191" s="33"/>
       <c r="B191" s="14"/>
-      <c r="C191" s="32"/>
+      <c r="C191" s="33"/>
       <c r="D191" s="14"/>
       <c r="E191" s="14"/>
-      <c r="F191" s="48"/>
+      <c r="F191" s="49"/>
       <c r="G191" s="14"/>
-      <c r="H191" s="35"/>
-      <c r="I191" s="32"/>
+      <c r="H191" s="36"/>
+      <c r="I191" s="33"/>
       <c r="J191" s="14"/>
       <c r="K191" s="14"/>
       <c r="L191" s="14"/>
@@ -6721,15 +6691,15 @@
       <c r="AA191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="32"/>
+      <c r="A192" s="33"/>
       <c r="B192" s="14"/>
-      <c r="C192" s="32"/>
+      <c r="C192" s="33"/>
       <c r="D192" s="14"/>
       <c r="E192" s="14"/>
-      <c r="F192" s="48"/>
+      <c r="F192" s="49"/>
       <c r="G192" s="14"/>
-      <c r="H192" s="35"/>
-      <c r="I192" s="32"/>
+      <c r="H192" s="36"/>
+      <c r="I192" s="33"/>
       <c r="J192" s="14"/>
       <c r="K192" s="14"/>
       <c r="L192" s="14"/>
@@ -6750,15 +6720,15 @@
       <c r="AA192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="32"/>
+      <c r="A193" s="33"/>
       <c r="B193" s="14"/>
-      <c r="C193" s="32"/>
+      <c r="C193" s="33"/>
       <c r="D193" s="14"/>
       <c r="E193" s="14"/>
-      <c r="F193" s="48"/>
+      <c r="F193" s="49"/>
       <c r="G193" s="14"/>
-      <c r="H193" s="35"/>
-      <c r="I193" s="32"/>
+      <c r="H193" s="36"/>
+      <c r="I193" s="33"/>
       <c r="J193" s="14"/>
       <c r="K193" s="14"/>
       <c r="L193" s="14"/>
@@ -6779,15 +6749,15 @@
       <c r="AA193" s="6"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="32"/>
+      <c r="A194" s="33"/>
       <c r="B194" s="14"/>
-      <c r="C194" s="32"/>
+      <c r="C194" s="33"/>
       <c r="D194" s="14"/>
       <c r="E194" s="14"/>
-      <c r="F194" s="48"/>
+      <c r="F194" s="49"/>
       <c r="G194" s="14"/>
-      <c r="H194" s="35"/>
-      <c r="I194" s="32"/>
+      <c r="H194" s="36"/>
+      <c r="I194" s="33"/>
       <c r="J194" s="14"/>
       <c r="K194" s="14"/>
       <c r="L194" s="14"/>
@@ -6808,15 +6778,15 @@
       <c r="AA194" s="6"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="32"/>
+      <c r="A195" s="33"/>
       <c r="B195" s="14"/>
-      <c r="C195" s="32"/>
+      <c r="C195" s="33"/>
       <c r="D195" s="14"/>
       <c r="E195" s="14"/>
-      <c r="F195" s="48"/>
+      <c r="F195" s="49"/>
       <c r="G195" s="14"/>
-      <c r="H195" s="35"/>
-      <c r="I195" s="32"/>
+      <c r="H195" s="36"/>
+      <c r="I195" s="33"/>
       <c r="J195" s="14"/>
       <c r="K195" s="14"/>
       <c r="L195" s="14"/>
@@ -6837,15 +6807,15 @@
       <c r="AA195" s="6"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="32"/>
+      <c r="A196" s="33"/>
       <c r="B196" s="14"/>
-      <c r="C196" s="32"/>
+      <c r="C196" s="33"/>
       <c r="D196" s="14"/>
       <c r="E196" s="14"/>
-      <c r="F196" s="48"/>
+      <c r="F196" s="49"/>
       <c r="G196" s="14"/>
-      <c r="H196" s="35"/>
-      <c r="I196" s="32"/>
+      <c r="H196" s="36"/>
+      <c r="I196" s="33"/>
       <c r="J196" s="14"/>
       <c r="K196" s="14"/>
       <c r="L196" s="14"/>
@@ -6866,15 +6836,15 @@
       <c r="AA196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="32"/>
+      <c r="A197" s="33"/>
       <c r="B197" s="14"/>
-      <c r="C197" s="32"/>
+      <c r="C197" s="33"/>
       <c r="D197" s="14"/>
       <c r="E197" s="14"/>
-      <c r="F197" s="48"/>
+      <c r="F197" s="49"/>
       <c r="G197" s="14"/>
-      <c r="H197" s="35"/>
-      <c r="I197" s="32"/>
+      <c r="H197" s="36"/>
+      <c r="I197" s="33"/>
       <c r="J197" s="14"/>
       <c r="K197" s="14"/>
       <c r="L197" s="14"/>
@@ -6895,15 +6865,15 @@
       <c r="AA197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="32"/>
+      <c r="A198" s="33"/>
       <c r="B198" s="14"/>
-      <c r="C198" s="32"/>
+      <c r="C198" s="33"/>
       <c r="D198" s="14"/>
       <c r="E198" s="14"/>
-      <c r="F198" s="48"/>
+      <c r="F198" s="49"/>
       <c r="G198" s="14"/>
-      <c r="H198" s="35"/>
-      <c r="I198" s="32"/>
+      <c r="H198" s="36"/>
+      <c r="I198" s="33"/>
       <c r="J198" s="14"/>
       <c r="K198" s="14"/>
       <c r="L198" s="14"/>
@@ -6924,15 +6894,15 @@
       <c r="AA198" s="6"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="32"/>
+      <c r="A199" s="33"/>
       <c r="B199" s="14"/>
-      <c r="C199" s="32"/>
+      <c r="C199" s="33"/>
       <c r="D199" s="14"/>
       <c r="E199" s="14"/>
-      <c r="F199" s="48"/>
+      <c r="F199" s="49"/>
       <c r="G199" s="14"/>
-      <c r="H199" s="35"/>
-      <c r="I199" s="32"/>
+      <c r="H199" s="36"/>
+      <c r="I199" s="33"/>
       <c r="J199" s="14"/>
       <c r="K199" s="14"/>
       <c r="L199" s="14"/>
@@ -6953,15 +6923,15 @@
       <c r="AA199" s="6"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="32"/>
+      <c r="A200" s="33"/>
       <c r="B200" s="14"/>
-      <c r="C200" s="32"/>
+      <c r="C200" s="33"/>
       <c r="D200" s="14"/>
       <c r="E200" s="14"/>
-      <c r="F200" s="48"/>
+      <c r="F200" s="49"/>
       <c r="G200" s="14"/>
-      <c r="H200" s="35"/>
-      <c r="I200" s="32"/>
+      <c r="H200" s="36"/>
+      <c r="I200" s="33"/>
       <c r="J200" s="14"/>
       <c r="K200" s="14"/>
       <c r="L200" s="14"/>
@@ -6982,15 +6952,15 @@
       <c r="AA200" s="6"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="32"/>
+      <c r="A201" s="33"/>
       <c r="B201" s="14"/>
-      <c r="C201" s="32"/>
+      <c r="C201" s="33"/>
       <c r="D201" s="14"/>
       <c r="E201" s="14"/>
-      <c r="F201" s="48"/>
+      <c r="F201" s="49"/>
       <c r="G201" s="14"/>
-      <c r="H201" s="35"/>
-      <c r="I201" s="32"/>
+      <c r="H201" s="36"/>
+      <c r="I201" s="33"/>
       <c r="J201" s="14"/>
       <c r="K201" s="14"/>
       <c r="L201" s="14"/>
@@ -7011,15 +6981,15 @@
       <c r="AA201" s="6"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="32"/>
+      <c r="A202" s="33"/>
       <c r="B202" s="14"/>
-      <c r="C202" s="32"/>
+      <c r="C202" s="33"/>
       <c r="D202" s="14"/>
       <c r="E202" s="14"/>
-      <c r="F202" s="48"/>
+      <c r="F202" s="49"/>
       <c r="G202" s="14"/>
-      <c r="H202" s="35"/>
-      <c r="I202" s="32"/>
+      <c r="H202" s="36"/>
+      <c r="I202" s="33"/>
       <c r="J202" s="14"/>
       <c r="K202" s="14"/>
       <c r="L202" s="14"/>
@@ -7040,15 +7010,15 @@
       <c r="AA202" s="6"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="32"/>
+      <c r="A203" s="33"/>
       <c r="B203" s="14"/>
-      <c r="C203" s="32"/>
+      <c r="C203" s="33"/>
       <c r="D203" s="14"/>
       <c r="E203" s="14"/>
-      <c r="F203" s="48"/>
+      <c r="F203" s="49"/>
       <c r="G203" s="14"/>
-      <c r="H203" s="35"/>
-      <c r="I203" s="32"/>
+      <c r="H203" s="36"/>
+      <c r="I203" s="33"/>
       <c r="J203" s="14"/>
       <c r="K203" s="14"/>
       <c r="L203" s="14"/>
@@ -7069,15 +7039,15 @@
       <c r="AA203" s="6"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="32"/>
+      <c r="A204" s="33"/>
       <c r="B204" s="14"/>
-      <c r="C204" s="32"/>
+      <c r="C204" s="33"/>
       <c r="D204" s="14"/>
       <c r="E204" s="14"/>
-      <c r="F204" s="48"/>
+      <c r="F204" s="49"/>
       <c r="G204" s="14"/>
-      <c r="H204" s="35"/>
-      <c r="I204" s="32"/>
+      <c r="H204" s="36"/>
+      <c r="I204" s="33"/>
       <c r="J204" s="14"/>
       <c r="K204" s="14"/>
       <c r="L204" s="14"/>
@@ -7098,15 +7068,15 @@
       <c r="AA204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="32"/>
+      <c r="A205" s="33"/>
       <c r="B205" s="14"/>
-      <c r="C205" s="32"/>
+      <c r="C205" s="33"/>
       <c r="D205" s="14"/>
       <c r="E205" s="14"/>
-      <c r="F205" s="48"/>
+      <c r="F205" s="49"/>
       <c r="G205" s="14"/>
-      <c r="H205" s="35"/>
-      <c r="I205" s="32"/>
+      <c r="H205" s="36"/>
+      <c r="I205" s="33"/>
       <c r="J205" s="14"/>
       <c r="K205" s="14"/>
       <c r="L205" s="14"/>
@@ -7127,15 +7097,15 @@
       <c r="AA205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="32"/>
+      <c r="A206" s="33"/>
       <c r="B206" s="14"/>
-      <c r="C206" s="32"/>
+      <c r="C206" s="33"/>
       <c r="D206" s="14"/>
       <c r="E206" s="14"/>
-      <c r="F206" s="48"/>
+      <c r="F206" s="49"/>
       <c r="G206" s="14"/>
-      <c r="H206" s="35"/>
-      <c r="I206" s="32"/>
+      <c r="H206" s="36"/>
+      <c r="I206" s="33"/>
       <c r="J206" s="14"/>
       <c r="K206" s="14"/>
       <c r="L206" s="14"/>
@@ -7156,15 +7126,15 @@
       <c r="AA206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="32"/>
+      <c r="A207" s="33"/>
       <c r="B207" s="14"/>
-      <c r="C207" s="32"/>
+      <c r="C207" s="33"/>
       <c r="D207" s="14"/>
       <c r="E207" s="14"/>
-      <c r="F207" s="48"/>
+      <c r="F207" s="49"/>
       <c r="G207" s="14"/>
-      <c r="H207" s="35"/>
-      <c r="I207" s="32"/>
+      <c r="H207" s="36"/>
+      <c r="I207" s="33"/>
       <c r="J207" s="14"/>
       <c r="K207" s="14"/>
       <c r="L207" s="14"/>
@@ -7185,15 +7155,15 @@
       <c r="AA207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="32"/>
+      <c r="A208" s="33"/>
       <c r="B208" s="14"/>
-      <c r="C208" s="32"/>
+      <c r="C208" s="33"/>
       <c r="D208" s="14"/>
       <c r="E208" s="14"/>
-      <c r="F208" s="48"/>
+      <c r="F208" s="49"/>
       <c r="G208" s="14"/>
-      <c r="H208" s="35"/>
-      <c r="I208" s="32"/>
+      <c r="H208" s="36"/>
+      <c r="I208" s="33"/>
       <c r="J208" s="14"/>
       <c r="K208" s="14"/>
       <c r="L208" s="14"/>
@@ -7214,15 +7184,15 @@
       <c r="AA208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="32"/>
+      <c r="A209" s="33"/>
       <c r="B209" s="14"/>
-      <c r="C209" s="32"/>
+      <c r="C209" s="33"/>
       <c r="D209" s="14"/>
       <c r="E209" s="14"/>
-      <c r="F209" s="48"/>
+      <c r="F209" s="49"/>
       <c r="G209" s="14"/>
-      <c r="H209" s="35"/>
-      <c r="I209" s="32"/>
+      <c r="H209" s="36"/>
+      <c r="I209" s="33"/>
       <c r="J209" s="14"/>
       <c r="K209" s="14"/>
       <c r="L209" s="14"/>
@@ -7243,15 +7213,15 @@
       <c r="AA209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="32"/>
+      <c r="A210" s="33"/>
       <c r="B210" s="14"/>
-      <c r="C210" s="32"/>
+      <c r="C210" s="33"/>
       <c r="D210" s="14"/>
       <c r="E210" s="14"/>
-      <c r="F210" s="48"/>
+      <c r="F210" s="49"/>
       <c r="G210" s="14"/>
-      <c r="H210" s="35"/>
-      <c r="I210" s="32"/>
+      <c r="H210" s="36"/>
+      <c r="I210" s="33"/>
       <c r="J210" s="14"/>
       <c r="K210" s="14"/>
       <c r="L210" s="14"/>
@@ -7272,15 +7242,15 @@
       <c r="AA210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="32"/>
+      <c r="A211" s="33"/>
       <c r="B211" s="14"/>
-      <c r="C211" s="32"/>
+      <c r="C211" s="33"/>
       <c r="D211" s="14"/>
       <c r="E211" s="14"/>
-      <c r="F211" s="48"/>
+      <c r="F211" s="49"/>
       <c r="G211" s="14"/>
-      <c r="H211" s="35"/>
-      <c r="I211" s="32"/>
+      <c r="H211" s="36"/>
+      <c r="I211" s="33"/>
       <c r="J211" s="14"/>
       <c r="K211" s="14"/>
       <c r="L211" s="14"/>
@@ -7301,15 +7271,15 @@
       <c r="AA211" s="6"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="32"/>
+      <c r="A212" s="33"/>
       <c r="B212" s="14"/>
-      <c r="C212" s="32"/>
+      <c r="C212" s="33"/>
       <c r="D212" s="14"/>
       <c r="E212" s="14"/>
-      <c r="F212" s="48"/>
+      <c r="F212" s="49"/>
       <c r="G212" s="14"/>
-      <c r="H212" s="35"/>
-      <c r="I212" s="32"/>
+      <c r="H212" s="36"/>
+      <c r="I212" s="33"/>
       <c r="J212" s="14"/>
       <c r="K212" s="14"/>
       <c r="L212" s="14"/>
@@ -7330,15 +7300,15 @@
       <c r="AA212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="32"/>
+      <c r="A213" s="33"/>
       <c r="B213" s="14"/>
-      <c r="C213" s="32"/>
+      <c r="C213" s="33"/>
       <c r="D213" s="14"/>
       <c r="E213" s="14"/>
-      <c r="F213" s="48"/>
+      <c r="F213" s="49"/>
       <c r="G213" s="14"/>
-      <c r="H213" s="35"/>
-      <c r="I213" s="32"/>
+      <c r="H213" s="36"/>
+      <c r="I213" s="33"/>
       <c r="J213" s="14"/>
       <c r="K213" s="14"/>
       <c r="L213" s="14"/>
@@ -7359,15 +7329,15 @@
       <c r="AA213" s="6"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="32"/>
+      <c r="A214" s="33"/>
       <c r="B214" s="14"/>
-      <c r="C214" s="32"/>
+      <c r="C214" s="33"/>
       <c r="D214" s="14"/>
       <c r="E214" s="14"/>
-      <c r="F214" s="48"/>
+      <c r="F214" s="49"/>
       <c r="G214" s="14"/>
-      <c r="H214" s="35"/>
-      <c r="I214" s="32"/>
+      <c r="H214" s="36"/>
+      <c r="I214" s="33"/>
       <c r="J214" s="14"/>
       <c r="K214" s="14"/>
       <c r="L214" s="14"/>
@@ -7388,15 +7358,15 @@
       <c r="AA214" s="6"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="32"/>
+      <c r="A215" s="33"/>
       <c r="B215" s="14"/>
-      <c r="C215" s="32"/>
+      <c r="C215" s="33"/>
       <c r="D215" s="14"/>
       <c r="E215" s="14"/>
-      <c r="F215" s="48"/>
+      <c r="F215" s="49"/>
       <c r="G215" s="14"/>
-      <c r="H215" s="35"/>
-      <c r="I215" s="32"/>
+      <c r="H215" s="36"/>
+      <c r="I215" s="33"/>
       <c r="J215" s="14"/>
       <c r="K215" s="14"/>
       <c r="L215" s="14"/>
@@ -7417,15 +7387,15 @@
       <c r="AA215" s="6"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="32"/>
+      <c r="A216" s="33"/>
       <c r="B216" s="14"/>
-      <c r="C216" s="32"/>
+      <c r="C216" s="33"/>
       <c r="D216" s="14"/>
       <c r="E216" s="14"/>
-      <c r="F216" s="48"/>
+      <c r="F216" s="49"/>
       <c r="G216" s="14"/>
-      <c r="H216" s="35"/>
-      <c r="I216" s="32"/>
+      <c r="H216" s="36"/>
+      <c r="I216" s="33"/>
       <c r="J216" s="14"/>
       <c r="K216" s="14"/>
       <c r="L216" s="14"/>
@@ -7446,15 +7416,15 @@
       <c r="AA216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="32"/>
+      <c r="A217" s="33"/>
       <c r="B217" s="14"/>
-      <c r="C217" s="32"/>
+      <c r="C217" s="33"/>
       <c r="D217" s="14"/>
       <c r="E217" s="14"/>
-      <c r="F217" s="48"/>
+      <c r="F217" s="49"/>
       <c r="G217" s="14"/>
-      <c r="H217" s="35"/>
-      <c r="I217" s="32"/>
+      <c r="H217" s="36"/>
+      <c r="I217" s="33"/>
       <c r="J217" s="14"/>
       <c r="K217" s="14"/>
       <c r="L217" s="14"/>
@@ -7475,15 +7445,15 @@
       <c r="AA217" s="6"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="32"/>
+      <c r="A218" s="33"/>
       <c r="B218" s="14"/>
-      <c r="C218" s="32"/>
+      <c r="C218" s="33"/>
       <c r="D218" s="14"/>
       <c r="E218" s="14"/>
-      <c r="F218" s="48"/>
+      <c r="F218" s="49"/>
       <c r="G218" s="14"/>
-      <c r="H218" s="35"/>
-      <c r="I218" s="32"/>
+      <c r="H218" s="36"/>
+      <c r="I218" s="33"/>
       <c r="J218" s="14"/>
       <c r="K218" s="14"/>
       <c r="L218" s="14"/>
@@ -7504,15 +7474,15 @@
       <c r="AA218" s="6"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="32"/>
+      <c r="A219" s="33"/>
       <c r="B219" s="14"/>
-      <c r="C219" s="32"/>
+      <c r="C219" s="33"/>
       <c r="D219" s="14"/>
       <c r="E219" s="14"/>
-      <c r="F219" s="48"/>
+      <c r="F219" s="49"/>
       <c r="G219" s="14"/>
-      <c r="H219" s="35"/>
-      <c r="I219" s="32"/>
+      <c r="H219" s="36"/>
+      <c r="I219" s="33"/>
       <c r="J219" s="14"/>
       <c r="K219" s="14"/>
       <c r="L219" s="14"/>
@@ -7533,15 +7503,15 @@
       <c r="AA219" s="6"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="32"/>
+      <c r="A220" s="33"/>
       <c r="B220" s="14"/>
-      <c r="C220" s="32"/>
+      <c r="C220" s="33"/>
       <c r="D220" s="14"/>
       <c r="E220" s="14"/>
-      <c r="F220" s="48"/>
+      <c r="F220" s="49"/>
       <c r="G220" s="14"/>
-      <c r="H220" s="35"/>
-      <c r="I220" s="32"/>
+      <c r="H220" s="36"/>
+      <c r="I220" s="33"/>
       <c r="J220" s="14"/>
       <c r="K220" s="14"/>
       <c r="L220" s="14"/>
@@ -7562,15 +7532,15 @@
       <c r="AA220" s="6"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="32"/>
+      <c r="A221" s="33"/>
       <c r="B221" s="14"/>
-      <c r="C221" s="32"/>
+      <c r="C221" s="33"/>
       <c r="D221" s="14"/>
       <c r="E221" s="14"/>
-      <c r="F221" s="48"/>
+      <c r="F221" s="49"/>
       <c r="G221" s="14"/>
-      <c r="H221" s="35"/>
-      <c r="I221" s="32"/>
+      <c r="H221" s="36"/>
+      <c r="I221" s="33"/>
       <c r="J221" s="14"/>
       <c r="K221" s="14"/>
       <c r="L221" s="14"/>
@@ -7591,15 +7561,15 @@
       <c r="AA221" s="6"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="32"/>
+      <c r="A222" s="33"/>
       <c r="B222" s="14"/>
-      <c r="C222" s="32"/>
+      <c r="C222" s="33"/>
       <c r="D222" s="14"/>
       <c r="E222" s="14"/>
-      <c r="F222" s="48"/>
+      <c r="F222" s="49"/>
       <c r="G222" s="14"/>
-      <c r="H222" s="35"/>
-      <c r="I222" s="32"/>
+      <c r="H222" s="36"/>
+      <c r="I222" s="33"/>
       <c r="J222" s="14"/>
       <c r="K222" s="14"/>
       <c r="L222" s="14"/>
@@ -7620,15 +7590,15 @@
       <c r="AA222" s="6"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="32"/>
+      <c r="A223" s="33"/>
       <c r="B223" s="14"/>
-      <c r="C223" s="32"/>
+      <c r="C223" s="33"/>
       <c r="D223" s="14"/>
       <c r="E223" s="14"/>
-      <c r="F223" s="48"/>
+      <c r="F223" s="49"/>
       <c r="G223" s="14"/>
-      <c r="H223" s="35"/>
-      <c r="I223" s="32"/>
+      <c r="H223" s="36"/>
+      <c r="I223" s="33"/>
       <c r="J223" s="14"/>
       <c r="K223" s="14"/>
       <c r="L223" s="14"/>
@@ -7649,15 +7619,15 @@
       <c r="AA223" s="6"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="32"/>
+      <c r="A224" s="33"/>
       <c r="B224" s="14"/>
-      <c r="C224" s="32"/>
+      <c r="C224" s="33"/>
       <c r="D224" s="14"/>
       <c r="E224" s="14"/>
-      <c r="F224" s="48"/>
+      <c r="F224" s="49"/>
       <c r="G224" s="14"/>
-      <c r="H224" s="35"/>
-      <c r="I224" s="32"/>
+      <c r="H224" s="36"/>
+      <c r="I224" s="33"/>
       <c r="J224" s="14"/>
       <c r="K224" s="14"/>
       <c r="L224" s="14"/>
@@ -7678,15 +7648,15 @@
       <c r="AA224" s="6"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="32"/>
+      <c r="A225" s="33"/>
       <c r="B225" s="14"/>
-      <c r="C225" s="32"/>
+      <c r="C225" s="33"/>
       <c r="D225" s="14"/>
       <c r="E225" s="14"/>
-      <c r="F225" s="48"/>
+      <c r="F225" s="49"/>
       <c r="G225" s="14"/>
-      <c r="H225" s="35"/>
-      <c r="I225" s="32"/>
+      <c r="H225" s="36"/>
+      <c r="I225" s="33"/>
       <c r="J225" s="14"/>
       <c r="K225" s="14"/>
       <c r="L225" s="14"/>
@@ -7707,15 +7677,15 @@
       <c r="AA225" s="6"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="32"/>
+      <c r="A226" s="33"/>
       <c r="B226" s="14"/>
-      <c r="C226" s="32"/>
+      <c r="C226" s="33"/>
       <c r="D226" s="14"/>
       <c r="E226" s="14"/>
-      <c r="F226" s="48"/>
+      <c r="F226" s="49"/>
       <c r="G226" s="14"/>
-      <c r="H226" s="35"/>
-      <c r="I226" s="32"/>
+      <c r="H226" s="36"/>
+      <c r="I226" s="33"/>
       <c r="J226" s="14"/>
       <c r="K226" s="14"/>
       <c r="L226" s="14"/>
@@ -7736,15 +7706,15 @@
       <c r="AA226" s="6"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="32"/>
+      <c r="A227" s="33"/>
       <c r="B227" s="14"/>
-      <c r="C227" s="32"/>
+      <c r="C227" s="33"/>
       <c r="D227" s="14"/>
       <c r="E227" s="14"/>
-      <c r="F227" s="48"/>
+      <c r="F227" s="49"/>
       <c r="G227" s="14"/>
-      <c r="H227" s="35"/>
-      <c r="I227" s="32"/>
+      <c r="H227" s="36"/>
+      <c r="I227" s="33"/>
       <c r="J227" s="14"/>
       <c r="K227" s="14"/>
       <c r="L227" s="14"/>
@@ -7765,15 +7735,15 @@
       <c r="AA227" s="6"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="32"/>
+      <c r="A228" s="33"/>
       <c r="B228" s="14"/>
-      <c r="C228" s="32"/>
+      <c r="C228" s="33"/>
       <c r="D228" s="14"/>
       <c r="E228" s="14"/>
-      <c r="F228" s="48"/>
+      <c r="F228" s="49"/>
       <c r="G228" s="14"/>
-      <c r="H228" s="35"/>
-      <c r="I228" s="32"/>
+      <c r="H228" s="36"/>
+      <c r="I228" s="33"/>
       <c r="J228" s="14"/>
       <c r="K228" s="14"/>
       <c r="L228" s="14"/>
@@ -7794,15 +7764,15 @@
       <c r="AA228" s="6"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="32"/>
+      <c r="A229" s="33"/>
       <c r="B229" s="14"/>
-      <c r="C229" s="32"/>
+      <c r="C229" s="33"/>
       <c r="D229" s="14"/>
       <c r="E229" s="14"/>
-      <c r="F229" s="48"/>
+      <c r="F229" s="49"/>
       <c r="G229" s="14"/>
-      <c r="H229" s="35"/>
-      <c r="I229" s="32"/>
+      <c r="H229" s="36"/>
+      <c r="I229" s="33"/>
       <c r="J229" s="14"/>
       <c r="K229" s="14"/>
       <c r="L229" s="14"/>
@@ -7823,15 +7793,15 @@
       <c r="AA229" s="6"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="32"/>
+      <c r="A230" s="33"/>
       <c r="B230" s="14"/>
-      <c r="C230" s="32"/>
+      <c r="C230" s="33"/>
       <c r="D230" s="14"/>
       <c r="E230" s="14"/>
-      <c r="F230" s="48"/>
+      <c r="F230" s="49"/>
       <c r="G230" s="14"/>
-      <c r="H230" s="35"/>
-      <c r="I230" s="32"/>
+      <c r="H230" s="36"/>
+      <c r="I230" s="33"/>
       <c r="J230" s="14"/>
       <c r="K230" s="14"/>
       <c r="L230" s="14"/>
@@ -7852,15 +7822,15 @@
       <c r="AA230" s="6"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="32"/>
+      <c r="A231" s="33"/>
       <c r="B231" s="14"/>
-      <c r="C231" s="32"/>
+      <c r="C231" s="33"/>
       <c r="D231" s="14"/>
       <c r="E231" s="14"/>
-      <c r="F231" s="48"/>
+      <c r="F231" s="49"/>
       <c r="G231" s="14"/>
-      <c r="H231" s="35"/>
-      <c r="I231" s="32"/>
+      <c r="H231" s="36"/>
+      <c r="I231" s="33"/>
       <c r="J231" s="14"/>
       <c r="K231" s="14"/>
       <c r="L231" s="14"/>
@@ -7881,15 +7851,15 @@
       <c r="AA231" s="6"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="32"/>
+      <c r="A232" s="33"/>
       <c r="B232" s="14"/>
-      <c r="C232" s="32"/>
+      <c r="C232" s="33"/>
       <c r="D232" s="14"/>
       <c r="E232" s="14"/>
-      <c r="F232" s="48"/>
+      <c r="F232" s="49"/>
       <c r="G232" s="14"/>
-      <c r="H232" s="35"/>
-      <c r="I232" s="32"/>
+      <c r="H232" s="36"/>
+      <c r="I232" s="33"/>
       <c r="J232" s="14"/>
       <c r="K232" s="14"/>
       <c r="L232" s="14"/>
@@ -7910,15 +7880,15 @@
       <c r="AA232" s="6"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="32"/>
+      <c r="A233" s="33"/>
       <c r="B233" s="14"/>
-      <c r="C233" s="32"/>
+      <c r="C233" s="33"/>
       <c r="D233" s="14"/>
       <c r="E233" s="14"/>
-      <c r="F233" s="48"/>
+      <c r="F233" s="49"/>
       <c r="G233" s="14"/>
-      <c r="H233" s="35"/>
-      <c r="I233" s="32"/>
+      <c r="H233" s="36"/>
+      <c r="I233" s="33"/>
       <c r="J233" s="14"/>
       <c r="K233" s="14"/>
       <c r="L233" s="14"/>
@@ -7939,15 +7909,15 @@
       <c r="AA233" s="6"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="32"/>
+      <c r="A234" s="33"/>
       <c r="B234" s="14"/>
-      <c r="C234" s="32"/>
+      <c r="C234" s="33"/>
       <c r="D234" s="14"/>
       <c r="E234" s="14"/>
-      <c r="F234" s="48"/>
+      <c r="F234" s="49"/>
       <c r="G234" s="14"/>
-      <c r="H234" s="35"/>
-      <c r="I234" s="32"/>
+      <c r="H234" s="36"/>
+      <c r="I234" s="33"/>
       <c r="J234" s="14"/>
       <c r="K234" s="14"/>
       <c r="L234" s="14"/>
@@ -7968,15 +7938,15 @@
       <c r="AA234" s="6"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="32"/>
+      <c r="A235" s="33"/>
       <c r="B235" s="14"/>
-      <c r="C235" s="32"/>
+      <c r="C235" s="33"/>
       <c r="D235" s="14"/>
       <c r="E235" s="14"/>
-      <c r="F235" s="48"/>
+      <c r="F235" s="49"/>
       <c r="G235" s="14"/>
-      <c r="H235" s="35"/>
-      <c r="I235" s="32"/>
+      <c r="H235" s="36"/>
+      <c r="I235" s="33"/>
       <c r="J235" s="14"/>
       <c r="K235" s="14"/>
       <c r="L235" s="14"/>
@@ -7997,15 +7967,15 @@
       <c r="AA235" s="6"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="32"/>
+      <c r="A236" s="33"/>
       <c r="B236" s="14"/>
-      <c r="C236" s="32"/>
+      <c r="C236" s="33"/>
       <c r="D236" s="14"/>
       <c r="E236" s="14"/>
-      <c r="F236" s="48"/>
+      <c r="F236" s="49"/>
       <c r="G236" s="14"/>
-      <c r="H236" s="35"/>
-      <c r="I236" s="32"/>
+      <c r="H236" s="36"/>
+      <c r="I236" s="33"/>
       <c r="J236" s="14"/>
       <c r="K236" s="14"/>
       <c r="L236" s="14"/>
@@ -8026,15 +7996,15 @@
       <c r="AA236" s="6"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="32"/>
+      <c r="A237" s="33"/>
       <c r="B237" s="14"/>
-      <c r="C237" s="32"/>
+      <c r="C237" s="33"/>
       <c r="D237" s="14"/>
       <c r="E237" s="14"/>
-      <c r="F237" s="48"/>
+      <c r="F237" s="49"/>
       <c r="G237" s="14"/>
-      <c r="H237" s="35"/>
-      <c r="I237" s="32"/>
+      <c r="H237" s="36"/>
+      <c r="I237" s="33"/>
       <c r="J237" s="14"/>
       <c r="K237" s="14"/>
       <c r="L237" s="14"/>
@@ -8055,15 +8025,15 @@
       <c r="AA237" s="6"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="32"/>
+      <c r="A238" s="33"/>
       <c r="B238" s="14"/>
-      <c r="C238" s="32"/>
+      <c r="C238" s="33"/>
       <c r="D238" s="14"/>
       <c r="E238" s="14"/>
-      <c r="F238" s="48"/>
+      <c r="F238" s="49"/>
       <c r="G238" s="14"/>
-      <c r="H238" s="35"/>
-      <c r="I238" s="32"/>
+      <c r="H238" s="36"/>
+      <c r="I238" s="33"/>
       <c r="J238" s="14"/>
       <c r="K238" s="14"/>
       <c r="L238" s="14"/>
@@ -8084,15 +8054,15 @@
       <c r="AA238" s="6"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="32"/>
+      <c r="A239" s="33"/>
       <c r="B239" s="14"/>
-      <c r="C239" s="32"/>
+      <c r="C239" s="33"/>
       <c r="D239" s="14"/>
       <c r="E239" s="14"/>
-      <c r="F239" s="48"/>
+      <c r="F239" s="49"/>
       <c r="G239" s="14"/>
-      <c r="H239" s="35"/>
-      <c r="I239" s="32"/>
+      <c r="H239" s="36"/>
+      <c r="I239" s="33"/>
       <c r="J239" s="14"/>
       <c r="K239" s="14"/>
       <c r="L239" s="14"/>
@@ -8113,15 +8083,15 @@
       <c r="AA239" s="6"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="32"/>
+      <c r="A240" s="33"/>
       <c r="B240" s="14"/>
-      <c r="C240" s="32"/>
+      <c r="C240" s="33"/>
       <c r="D240" s="14"/>
       <c r="E240" s="14"/>
-      <c r="F240" s="48"/>
+      <c r="F240" s="49"/>
       <c r="G240" s="14"/>
-      <c r="H240" s="35"/>
-      <c r="I240" s="32"/>
+      <c r="H240" s="36"/>
+      <c r="I240" s="33"/>
       <c r="J240" s="14"/>
       <c r="K240" s="14"/>
       <c r="L240" s="14"/>
@@ -8142,15 +8112,15 @@
       <c r="AA240" s="6"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="32"/>
+      <c r="A241" s="33"/>
       <c r="B241" s="14"/>
-      <c r="C241" s="32"/>
+      <c r="C241" s="33"/>
       <c r="D241" s="14"/>
       <c r="E241" s="14"/>
-      <c r="F241" s="48"/>
+      <c r="F241" s="49"/>
       <c r="G241" s="14"/>
-      <c r="H241" s="35"/>
-      <c r="I241" s="32"/>
+      <c r="H241" s="36"/>
+      <c r="I241" s="33"/>
       <c r="J241" s="14"/>
       <c r="K241" s="14"/>
       <c r="L241" s="14"/>
@@ -8171,15 +8141,15 @@
       <c r="AA241" s="6"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="32"/>
+      <c r="A242" s="33"/>
       <c r="B242" s="14"/>
-      <c r="C242" s="32"/>
+      <c r="C242" s="33"/>
       <c r="D242" s="14"/>
       <c r="E242" s="14"/>
-      <c r="F242" s="48"/>
+      <c r="F242" s="49"/>
       <c r="G242" s="14"/>
-      <c r="H242" s="35"/>
-      <c r="I242" s="32"/>
+      <c r="H242" s="36"/>
+      <c r="I242" s="33"/>
       <c r="J242" s="14"/>
       <c r="K242" s="14"/>
       <c r="L242" s="14"/>
@@ -8200,15 +8170,15 @@
       <c r="AA242" s="6"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="32"/>
+      <c r="A243" s="33"/>
       <c r="B243" s="14"/>
-      <c r="C243" s="32"/>
+      <c r="C243" s="33"/>
       <c r="D243" s="14"/>
       <c r="E243" s="14"/>
-      <c r="F243" s="48"/>
+      <c r="F243" s="49"/>
       <c r="G243" s="14"/>
-      <c r="H243" s="35"/>
-      <c r="I243" s="32"/>
+      <c r="H243" s="36"/>
+      <c r="I243" s="33"/>
       <c r="J243" s="14"/>
       <c r="K243" s="14"/>
       <c r="L243" s="14"/>
@@ -8229,15 +8199,15 @@
       <c r="AA243" s="6"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="32"/>
+      <c r="A244" s="33"/>
       <c r="B244" s="14"/>
-      <c r="C244" s="32"/>
+      <c r="C244" s="33"/>
       <c r="D244" s="14"/>
       <c r="E244" s="14"/>
-      <c r="F244" s="48"/>
+      <c r="F244" s="49"/>
       <c r="G244" s="14"/>
-      <c r="H244" s="35"/>
-      <c r="I244" s="32"/>
+      <c r="H244" s="36"/>
+      <c r="I244" s="33"/>
       <c r="J244" s="14"/>
       <c r="K244" s="14"/>
       <c r="L244" s="14"/>
@@ -8258,15 +8228,15 @@
       <c r="AA244" s="6"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="32"/>
+      <c r="A245" s="33"/>
       <c r="B245" s="14"/>
-      <c r="C245" s="32"/>
+      <c r="C245" s="33"/>
       <c r="D245" s="14"/>
       <c r="E245" s="14"/>
-      <c r="F245" s="48"/>
+      <c r="F245" s="49"/>
       <c r="G245" s="14"/>
-      <c r="H245" s="35"/>
-      <c r="I245" s="32"/>
+      <c r="H245" s="36"/>
+      <c r="I245" s="33"/>
       <c r="J245" s="14"/>
       <c r="K245" s="14"/>
       <c r="L245" s="14"/>
@@ -8287,15 +8257,15 @@
       <c r="AA245" s="6"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="32"/>
+      <c r="A246" s="33"/>
       <c r="B246" s="14"/>
-      <c r="C246" s="32"/>
+      <c r="C246" s="33"/>
       <c r="D246" s="14"/>
       <c r="E246" s="14"/>
-      <c r="F246" s="48"/>
+      <c r="F246" s="49"/>
       <c r="G246" s="14"/>
-      <c r="H246" s="35"/>
-      <c r="I246" s="32"/>
+      <c r="H246" s="36"/>
+      <c r="I246" s="33"/>
       <c r="J246" s="14"/>
       <c r="K246" s="14"/>
       <c r="L246" s="14"/>
